--- a/Data/Test SWV/DPV Analysis/Analysis Files/Pbp2.xlsx
+++ b/Data/Test SWV/DPV Analysis/Analysis Files/Pbp2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Peak Info; File 0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Signal Data; File 0" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Signal Data; File 0" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Peak Info; File 0" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -480,10 +480,10 @@
         <v>-0.004</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-0.6099571428571435</v>
+        <v>-0.609957142857143</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>-0.6099571428571435</v>
+        <v>-0.609957142857143</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>0</v>
@@ -493,7 +493,7 @@
         <v>-0.292</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>-0.1597234181343775</v>
+        <v>-0.1597234181343774</v>
       </c>
     </row>
     <row r="3">
@@ -501,10 +501,10 @@
         <v>-0.008</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>-0.6131404761904765</v>
+        <v>-0.6131404761904763</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>-0.6131404761904765</v>
+        <v>-0.6131404761904763</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>0</v>
@@ -518,10 +518,10 @@
         <v>-0.012</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>-0.6138047619047622</v>
+        <v>-0.613804761904762</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>-0.6138047619047622</v>
+        <v>-0.613804761904762</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>0</v>
@@ -535,10 +535,10 @@
         <v>-0.016</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>-0.6129333333333338</v>
+        <v>-0.6129333333333333</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>-0.6129333333333338</v>
+        <v>-0.6129333333333333</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>0</v>
@@ -552,10 +552,10 @@
         <v>-0.02</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>-0.6117142857142861</v>
+        <v>-0.6117142857142859</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>-0.6117142857142861</v>
+        <v>-0.6117142857142859</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>0</v>
@@ -569,10 +569,10 @@
         <v>-0.024</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>-0.6110714285714289</v>
+        <v>-0.6110714285714287</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>-0.6110714285714289</v>
+        <v>-0.6110714285714287</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>-0.028</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>-0.6105000000000005</v>
+        <v>-0.6105</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>-0.6105000000000005</v>
+        <v>-0.6105</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>0</v>
@@ -603,10 +603,10 @@
         <v>-0.032</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>-0.6100619047619051</v>
+        <v>-0.6100619047619048</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>-0.6100619047619051</v>
+        <v>-0.6100619047619048</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>-0.036</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>-0.6097190476190479</v>
+        <v>-0.6097190476190477</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>-0.6097190476190479</v>
+        <v>-0.6097190476190477</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>0</v>
@@ -637,10 +637,10 @@
         <v>-0.04</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>-0.6094523809523813</v>
+        <v>-0.6094523809523811</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>-0.6094523809523813</v>
+        <v>-0.6094523809523811</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>0</v>
@@ -654,10 +654,10 @@
         <v>-0.044</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>-0.6092904761904766</v>
+        <v>-0.6092904761904763</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>-0.6092904761904766</v>
+        <v>-0.6092904761904763</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>0</v>
@@ -671,10 +671,10 @@
         <v>-0.048</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>-0.6092285714285719</v>
+        <v>-0.6092285714285717</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>-0.6092285714285719</v>
+        <v>-0.6092285714285717</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>0</v>
@@ -688,10 +688,10 @@
         <v>-0.052</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>-0.6092571428571433</v>
+        <v>-0.6092571428571429</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>-0.6092571428571433</v>
+        <v>-0.6092571428571429</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>0</v>
@@ -705,10 +705,10 @@
         <v>-0.056</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>-0.609371428571429</v>
+        <v>-0.6093714285714287</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>-0.609371428571429</v>
+        <v>-0.6093714285714287</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>-0.06</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>-0.6096333333333337</v>
+        <v>-0.6096333333333334</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>-0.6096333333333337</v>
+        <v>-0.6096333333333334</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>-0.064</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>-0.6100285714285718</v>
+        <v>-0.6100285714285714</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>-0.6100285714285718</v>
+        <v>-0.6100285714285714</v>
       </c>
       <c r="D17" s="2" t="n">
         <v>0</v>
@@ -756,10 +756,10 @@
         <v>-0.068</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>-0.6105095238095242</v>
+        <v>-0.6105095238095238</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>-0.6105095238095242</v>
+        <v>-0.6105095238095238</v>
       </c>
       <c r="D18" s="2" t="n">
         <v>0</v>
@@ -773,10 +773,10 @@
         <v>-0.07199999999999999</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>-0.6111571428571432</v>
+        <v>-0.611157142857143</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>-0.6111571428571432</v>
+        <v>-0.611157142857143</v>
       </c>
       <c r="D19" s="2" t="n">
         <v>0</v>
@@ -790,10 +790,10 @@
         <v>-0.076</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>-0.6118619047619052</v>
+        <v>-0.6118619047619047</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>-0.6118619047619052</v>
+        <v>-0.6118619047619047</v>
       </c>
       <c r="D20" s="2" t="n">
         <v>0</v>
@@ -807,10 +807,10 @@
         <v>-0.08</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>-0.612566666666667</v>
+        <v>-0.6125666666666667</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>-0.612566666666667</v>
+        <v>-0.6125666666666667</v>
       </c>
       <c r="D21" s="2" t="n">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>-0.08400000000000001</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>-0.6133666666666671</v>
+        <v>-0.6133666666666666</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>-0.6133666666666671</v>
+        <v>-0.6133666666666666</v>
       </c>
       <c r="D22" s="2" t="n">
         <v>0</v>
@@ -841,10 +841,10 @@
         <v>-0.08799999999999999</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>-0.6143380952380957</v>
+        <v>-0.6143380952380953</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>-0.6143380952380957</v>
+        <v>-0.6143380952380953</v>
       </c>
       <c r="D23" s="2" t="n">
         <v>0</v>
@@ -858,10 +858,10 @@
         <v>-0.092</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>-0.6154523809523813</v>
+        <v>-0.6154523809523811</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>-0.6154523809523813</v>
+        <v>-0.6154523809523811</v>
       </c>
       <c r="D24" s="2" t="n">
         <v>0</v>
@@ -875,10 +875,10 @@
         <v>-0.096</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>-0.6167666666666671</v>
+        <v>-0.6167666666666667</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>-0.6167666666666671</v>
+        <v>-0.6167666666666667</v>
       </c>
       <c r="D25" s="2" t="n">
         <v>0</v>
@@ -892,10 +892,10 @@
         <v>-0.1</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>-0.6181809523809528</v>
+        <v>-0.6181809523809525</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>-0.6181809523809528</v>
+        <v>-0.6181809523809525</v>
       </c>
       <c r="D26" s="2" t="n">
         <v>0</v>
@@ -909,10 +909,10 @@
         <v>-0.104</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>-0.6197380952380958</v>
+        <v>-0.6197380952380953</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>-0.6197380952380958</v>
+        <v>-0.6197380952380953</v>
       </c>
       <c r="D27" s="2" t="n">
         <v>0</v>
@@ -926,10 +926,10 @@
         <v>-0.108</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>-0.6213952380952386</v>
+        <v>-0.6213952380952381</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>-0.6213952380952386</v>
+        <v>-0.6213952380952381</v>
       </c>
       <c r="D28" s="2" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>-0.112</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>-0.6232571428571433</v>
+        <v>-0.623257142857143</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>-0.6232571428571433</v>
+        <v>-0.623257142857143</v>
       </c>
       <c r="D29" s="2" t="n">
         <v>0</v>
@@ -960,10 +960,10 @@
         <v>-0.116</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>-0.6253285714285719</v>
+        <v>-0.6253285714285715</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>-0.6253285714285719</v>
+        <v>-0.6253285714285715</v>
       </c>
       <c r="D30" s="2" t="n">
         <v>0</v>
@@ -977,10 +977,10 @@
         <v>-0.12</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>-0.6276380952380958</v>
+        <v>-0.6276380952380953</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>-0.6276380952380958</v>
+        <v>-0.6276380952380953</v>
       </c>
       <c r="D31" s="2" t="n">
         <v>0</v>
@@ -994,10 +994,10 @@
         <v>-0.124</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>-0.6302571428571433</v>
+        <v>-0.6302571428571428</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>-0.6302571428571433</v>
+        <v>-0.6302571428571428</v>
       </c>
       <c r="D32" s="2" t="n">
         <v>0</v>
@@ -1011,10 +1011,10 @@
         <v>-0.128</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>-0.6330904761904765</v>
+        <v>-0.6330904761904763</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>-0.6330904761904765</v>
+        <v>-0.6330904761904763</v>
       </c>
       <c r="D33" s="2" t="n">
         <v>0</v>
@@ -1028,10 +1028,10 @@
         <v>-0.132</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>-0.6361476190476194</v>
+        <v>-0.6361476190476191</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>-0.6361476190476194</v>
+        <v>-0.6361476190476191</v>
       </c>
       <c r="D34" s="2" t="n">
         <v>0</v>
@@ -1045,10 +1045,10 @@
         <v>-0.136</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>-0.6395238095238099</v>
+        <v>-0.6395238095238096</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>-0.6395238095238099</v>
+        <v>-0.6395238095238096</v>
       </c>
       <c r="D35" s="2" t="n">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>-0.14</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>-0.6432666666666671</v>
+        <v>-0.6432666666666668</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>-0.6432666666666671</v>
+        <v>-0.6432666666666668</v>
       </c>
       <c r="D36" s="2" t="n">
         <v>0</v>
@@ -1079,10 +1079,10 @@
         <v>-0.144</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>-0.6474142857142862</v>
+        <v>-0.6474142857142858</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>-0.6474142857142862</v>
+        <v>-0.6474142857142858</v>
       </c>
       <c r="D37" s="2" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>-0.148</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>-0.6520428571428576</v>
+        <v>-0.6520428571428573</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>-0.6520428571428573</v>
+        <v>-0.6520428571428569</v>
       </c>
       <c r="D38" s="2" t="n">
         <v>-3.33066907387547e-16</v>
@@ -1113,13 +1113,13 @@
         <v>-0.152</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>-0.6569857142857147</v>
+        <v>-0.6569857142857143</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>-0.6567611219830399</v>
+        <v>-0.6567611219830396</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>-0.0002245923026747976</v>
+        <v>-0.0002245923026746866</v>
       </c>
       <c r="E39" s="2" t="n"/>
       <c r="F39" s="2" t="n"/>
@@ -1130,10 +1130,10 @@
         <v>-0.156</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>-0.6624190476190479</v>
+        <v>-0.6624190476190477</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>-0.6614793868232225</v>
+        <v>-0.6614793868232223</v>
       </c>
       <c r="D40" s="2" t="n">
         <v>-0.0009396607958254144</v>
@@ -1147,13 +1147,13 @@
         <v>-0.16</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>-0.6683142857142861</v>
+        <v>-0.6683142857142857</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>-0.6661976516634052</v>
+        <v>-0.6661976516634049</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>-0.002116634050880917</v>
+        <v>-0.002116634050880806</v>
       </c>
       <c r="E41" s="2" t="n"/>
       <c r="F41" s="2" t="n"/>
@@ -1164,13 +1164,13 @@
         <v>-0.164</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>-0.6747428571428575</v>
+        <v>-0.6747428571428572</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>-0.6709159165035878</v>
+        <v>-0.6709159165035876</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>-0.003826940639269694</v>
+        <v>-0.003826940639269583</v>
       </c>
       <c r="E42" s="2" t="n"/>
       <c r="F42" s="2" t="n"/>
@@ -1181,13 +1181,13 @@
         <v>-0.168</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>-0.6817000000000004</v>
+        <v>-0.6817</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>-0.6756341813437705</v>
+        <v>-0.6756341813437703</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>-0.006065818656229904</v>
+        <v>-0.006065818656229682</v>
       </c>
       <c r="E43" s="2" t="n"/>
       <c r="F43" s="2" t="n"/>
@@ -1198,13 +1198,13 @@
         <v>-0.172</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>-0.6891476190476193</v>
+        <v>-0.6891476190476191</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>-0.6803524461839532</v>
+        <v>-0.6803524461839529</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>-0.008795172863666156</v>
+        <v>-0.008795172863666267</v>
       </c>
       <c r="E44" s="2" t="n"/>
       <c r="F44" s="2" t="n"/>
@@ -1215,13 +1215,13 @@
         <v>-0.176</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>-0.6970476190476194</v>
+        <v>-0.6970476190476191</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>-0.6850707110241359</v>
+        <v>-0.6850707110241355</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>-0.0119769080234835</v>
+        <v>-0.01197690802348361</v>
       </c>
       <c r="E45" s="2" t="n"/>
       <c r="F45" s="2" t="n"/>
@@ -1232,13 +1232,13 @@
         <v>-0.18</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>-0.7055523809523814</v>
+        <v>-0.705552380952381</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>-0.6897889758643184</v>
+        <v>-0.6897889758643182</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>-0.01576340508806295</v>
+        <v>-0.01576340508806284</v>
       </c>
       <c r="E46" s="2" t="n"/>
       <c r="F46" s="2" t="n"/>
@@ -1249,13 +1249,13 @@
         <v>-0.184</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>-0.7145142857142861</v>
+        <v>-0.7145142857142857</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>-0.6945072407045011</v>
+        <v>-0.6945072407045008</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>-0.02000704500978501</v>
+        <v>-0.0200070450097849</v>
       </c>
       <c r="E47" s="2" t="n"/>
       <c r="F47" s="2" t="n"/>
@@ -1266,13 +1266,13 @@
         <v>-0.188</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>-0.7240000000000004</v>
+        <v>-0.724</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>-0.6992255055446838</v>
+        <v>-0.6992255055446834</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>-0.02477449445531665</v>
+        <v>-0.02477449445531654</v>
       </c>
       <c r="E48" s="2" t="n"/>
       <c r="F48" s="2" t="n"/>
@@ -1283,13 +1283,13 @@
         <v>-0.192</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>-0.7337333333333338</v>
+        <v>-0.7337333333333333</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>-0.7039437703848664</v>
+        <v>-0.7039437703848661</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>-0.02978956294846735</v>
+        <v>-0.02978956294846724</v>
       </c>
       <c r="E49" s="2" t="n"/>
       <c r="F49" s="2" t="n"/>
@@ -1300,13 +1300,13 @@
         <v>-0.196</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>-0.743919047619048</v>
+        <v>-0.7439190476190476</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>-0.7086620352250491</v>
+        <v>-0.7086620352250488</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>-0.03525701239399892</v>
+        <v>-0.03525701239399881</v>
       </c>
       <c r="E50" s="2" t="n"/>
       <c r="F50" s="2" t="n"/>
@@ -1317,13 +1317,13 @@
         <v>-0.2</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>-0.7544619047619052</v>
+        <v>-0.7544619047619049</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>-0.7133803000652317</v>
+        <v>-0.7133803000652315</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>-0.04108160469667355</v>
+        <v>-0.04108160469667343</v>
       </c>
       <c r="E51" s="2" t="n"/>
       <c r="F51" s="2" t="n"/>
@@ -1334,13 +1334,13 @@
         <v>-0.204</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>-0.7653904761904766</v>
+        <v>-0.7653904761904764</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>-0.7180985649054143</v>
+        <v>-0.718098564905414</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>-0.04729191128506227</v>
+        <v>-0.04729191128506238</v>
       </c>
       <c r="E52" s="2" t="n"/>
       <c r="F52" s="2" t="n"/>
@@ -1351,13 +1351,13 @@
         <v>-0.208</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>-0.7766047619047625</v>
+        <v>-0.776604761904762</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>-0.722816829745597</v>
+        <v>-0.7228168297455967</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>-0.05378793215916544</v>
+        <v>-0.05378793215916533</v>
       </c>
       <c r="E53" s="2" t="n"/>
       <c r="F53" s="2" t="n"/>
@@ -1368,13 +1368,13 @@
         <v>-0.212</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>-0.7881047619047625</v>
+        <v>-0.788104761904762</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>-0.7275350945857797</v>
+        <v>-0.7275350945857794</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>-0.06056966731898283</v>
+        <v>-0.06056966731898261</v>
       </c>
       <c r="E54" s="2" t="n"/>
       <c r="F54" s="2" t="n"/>
@@ -1385,13 +1385,13 @@
         <v>-0.216</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>-0.799628571428572</v>
+        <v>-0.7996285714285716</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>-0.7322533594259624</v>
+        <v>-0.732253359425962</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>-0.06737521200260965</v>
+        <v>-0.06737521200260954</v>
       </c>
       <c r="E55" s="2" t="n"/>
       <c r="F55" s="2" t="n"/>
@@ -1402,13 +1402,13 @@
         <v>-0.22</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>-0.8113714285714293</v>
+        <v>-0.8113714285714287</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>-0.736971624266145</v>
+        <v>-0.7369716242661446</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>-0.07439980430528426</v>
+        <v>-0.07439980430528415</v>
       </c>
       <c r="E56" s="2" t="n"/>
       <c r="F56" s="2" t="n"/>
@@ -1419,13 +1419,13 @@
         <v>-0.224</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>-0.8231714285714292</v>
+        <v>-0.8231714285714287</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>-0.7416898891063277</v>
+        <v>-0.7416898891063273</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>-0.0814815394651015</v>
+        <v>-0.08148153946510139</v>
       </c>
       <c r="E57" s="2" t="n"/>
       <c r="F57" s="2" t="n"/>
@@ -1436,13 +1436,13 @@
         <v>-0.228</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>-0.8349952380952388</v>
+        <v>-0.8349952380952383</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>-0.7464081539465103</v>
+        <v>-0.7464081539465099</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>-0.08858708414872851</v>
+        <v>-0.0885870841487284</v>
       </c>
       <c r="E58" s="2" t="n"/>
       <c r="F58" s="2" t="n"/>
@@ -1453,13 +1453,13 @@
         <v>-0.232</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>-0.8467904761904768</v>
+        <v>-0.8467904761904763</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>-0.751126418786693</v>
+        <v>-0.7511264187866926</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>-0.09566405740378381</v>
+        <v>-0.0956640574037837</v>
       </c>
       <c r="E59" s="2" t="n"/>
       <c r="F59" s="2" t="n"/>
@@ -1470,13 +1470,13 @@
         <v>-0.236</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>-0.8584666666666673</v>
+        <v>-0.8584666666666667</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>-0.7558446836268755</v>
+        <v>-0.7558446836268753</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>-0.1026219830397918</v>
+        <v>-0.1026219830397914</v>
       </c>
       <c r="E60" s="2" t="n"/>
       <c r="F60" s="2" t="n"/>
@@ -1487,13 +1487,13 @@
         <v>-0.24</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>-0.8699000000000006</v>
+        <v>-0.8699000000000001</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>-0.7605629484670582</v>
+        <v>-0.760562948467058</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>-0.1093370515329424</v>
+        <v>-0.1093370515329422</v>
       </c>
       <c r="E61" s="2" t="n"/>
       <c r="F61" s="2" t="n"/>
@@ -1504,13 +1504,13 @@
         <v>-0.244</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>-0.8810904761904769</v>
+        <v>-0.8810904761904763</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>-0.7652812133072409</v>
+        <v>-0.7652812133072406</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>-0.115809262883236</v>
+        <v>-0.1158092628832357</v>
       </c>
       <c r="E62" s="2" t="n"/>
       <c r="F62" s="2" t="n"/>
@@ -1521,13 +1521,13 @@
         <v>-0.248</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>-0.8920190476190482</v>
+        <v>-0.8920190476190477</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>-0.7699994781474235</v>
+        <v>-0.7699994781474232</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>-0.1220195694716246</v>
+        <v>-0.1220195694716245</v>
       </c>
       <c r="E63" s="2" t="n"/>
       <c r="F63" s="2" t="n"/>
@@ -1538,13 +1538,13 @@
         <v>-0.252</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>-0.9027523809523815</v>
+        <v>-0.902752380952381</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>-0.7747177429876062</v>
+        <v>-0.7747177429876059</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>-0.1280346379647753</v>
+        <v>-0.1280346379647751</v>
       </c>
       <c r="E64" s="2" t="n"/>
       <c r="F64" s="2" t="n"/>
@@ -1555,13 +1555,13 @@
         <v>-0.256</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>-0.9131190476190482</v>
+        <v>-0.9131190476190476</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>-0.7794360078277889</v>
+        <v>-0.7794360078277884</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>-0.1336830397912593</v>
+        <v>-0.1336830397912592</v>
       </c>
       <c r="E65" s="2" t="n"/>
       <c r="F65" s="2" t="n"/>
@@ -1572,13 +1572,13 @@
         <v>-0.26</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>-0.9230476190476197</v>
+        <v>-0.9230476190476191</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>-0.7841542726679716</v>
+        <v>-0.7841542726679711</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>-0.1388933463796481</v>
+        <v>-0.138893346379648</v>
       </c>
       <c r="E66" s="2" t="n"/>
       <c r="F66" s="2" t="n"/>
@@ -1589,13 +1589,13 @@
         <v>-0.264</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>-0.9325047619047626</v>
+        <v>-0.9325047619047621</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>-0.7888725375081542</v>
+        <v>-0.7888725375081538</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>-0.1436322243966084</v>
+        <v>-0.1436322243966083</v>
       </c>
       <c r="E67" s="2" t="n"/>
       <c r="F67" s="2" t="n"/>
@@ -1606,13 +1606,13 @@
         <v>-0.268</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>-0.9413238095238101</v>
+        <v>-0.9413238095238096</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>-0.7935908023483369</v>
+        <v>-0.7935908023483365</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>-0.1477330071754732</v>
+        <v>-0.1477330071754731</v>
       </c>
       <c r="E68" s="2" t="n"/>
       <c r="F68" s="2" t="n"/>
@@ -1623,13 +1623,13 @@
         <v>-0.272</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>-0.9495428571428578</v>
+        <v>-0.9495428571428572</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>-0.7983090671885195</v>
+        <v>-0.7983090671885191</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>-0.1512337899543383</v>
+        <v>-0.1512337899543381</v>
       </c>
       <c r="E69" s="2" t="n"/>
       <c r="F69" s="2" t="n"/>
@@ -1640,13 +1640,13 @@
         <v>-0.276</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>-0.9572380952380959</v>
+        <v>-0.9572380952380953</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>-0.8030273320287021</v>
+        <v>-0.8030273320287018</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>-0.1542107632093938</v>
+        <v>-0.1542107632093935</v>
       </c>
       <c r="E70" s="2" t="n"/>
       <c r="F70" s="2" t="n"/>
@@ -1657,13 +1657,13 @@
         <v>-0.28</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>-0.9643142857142865</v>
+        <v>-0.9643142857142859</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>-0.8077455968688848</v>
+        <v>-0.8077455968688845</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>-0.1565686888454016</v>
+        <v>-0.1565686888454014</v>
       </c>
       <c r="E71" s="2" t="n"/>
       <c r="F71" s="2" t="n"/>
@@ -1674,13 +1674,13 @@
         <v>-0.284</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>-0.9707476190476196</v>
+        <v>-0.9707476190476192</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>-0.8124638617090674</v>
+        <v>-0.812463861709067</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>-0.1582837573385523</v>
+        <v>-0.1582837573385522</v>
       </c>
       <c r="E72" s="2" t="n"/>
       <c r="F72" s="2" t="n"/>
@@ -1691,13 +1691,13 @@
         <v>-0.288</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>-0.9765666666666675</v>
+        <v>-0.9765666666666668</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>-0.81718212654925</v>
+        <v>-0.8171821265492496</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>-0.1593845401174174</v>
+        <v>-0.1593845401174172</v>
       </c>
       <c r="E73" s="2" t="n"/>
       <c r="F73" s="2" t="n"/>
@@ -1708,13 +1708,13 @@
         <v>-0.292</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>-0.9816238095238102</v>
+        <v>-0.9816238095238097</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>-0.8219003913894327</v>
+        <v>-0.8219003913894323</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>-0.1597234181343775</v>
+        <v>-0.1597234181343774</v>
       </c>
       <c r="E74" s="2" t="n"/>
       <c r="F74" s="2" t="n"/>
@@ -1725,13 +1725,13 @@
         <v>-0.296</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>-0.9860000000000008</v>
+        <v>-0.9860000000000002</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>-0.8266186562296154</v>
+        <v>-0.8266186562296149</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>-0.1593813437703854</v>
+        <v>-0.1593813437703853</v>
       </c>
       <c r="E75" s="2" t="n"/>
       <c r="F75" s="2" t="n"/>
@@ -1742,13 +1742,13 @@
         <v>-0.3</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>-0.9897190476190483</v>
+        <v>-0.9897190476190477</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>-0.8313369210697981</v>
+        <v>-0.8313369210697976</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>-0.1583821265492502</v>
+        <v>-0.1583821265492501</v>
       </c>
       <c r="E76" s="2" t="n"/>
       <c r="F76" s="2" t="n"/>
@@ -1759,13 +1759,13 @@
         <v>-0.304</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>-0.9927666666666674</v>
+        <v>-0.9927666666666668</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>-0.8360551859099807</v>
+        <v>-0.8360551859099803</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>-0.1567114807566866</v>
+        <v>-0.1567114807566865</v>
       </c>
       <c r="E77" s="2" t="n"/>
       <c r="F77" s="2" t="n"/>
@@ -1776,13 +1776,13 @@
         <v>-0.308</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>-0.9951761904761912</v>
+        <v>-0.9951761904761907</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>-0.8407734507501633</v>
+        <v>-0.840773450750163</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>-0.1544027397260279</v>
+        <v>-0.1544027397260277</v>
       </c>
       <c r="E78" s="2" t="n"/>
       <c r="F78" s="2" t="n"/>
@@ -1793,13 +1793,13 @@
         <v>-0.312</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>-0.9969666666666672</v>
+        <v>-0.9969666666666667</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>-0.845491715590346</v>
+        <v>-0.8454917155903456</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>-0.1514749510763213</v>
+        <v>-0.151474951076321</v>
       </c>
       <c r="E79" s="2" t="n"/>
       <c r="F79" s="2" t="n"/>
@@ -1810,13 +1810,13 @@
         <v>-0.316</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>-0.9981761904761911</v>
+        <v>-0.9981761904761906</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>-0.8502099804305286</v>
+        <v>-0.8502099804305283</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>-0.1479662100456625</v>
+        <v>-0.1479662100456622</v>
       </c>
       <c r="E80" s="2" t="n"/>
       <c r="F80" s="2" t="n"/>
@@ -1827,13 +1827,13 @@
         <v>-0.32</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>-0.9987714285714293</v>
+        <v>-0.9987714285714286</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>-0.8549282452707112</v>
+        <v>-0.854928245270711</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>-0.1438431833007181</v>
+        <v>-0.1438431833007177</v>
       </c>
       <c r="E81" s="2" t="n"/>
       <c r="F81" s="2" t="n"/>
@@ -1844,13 +1844,13 @@
         <v>-0.324</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>-0.9988619047619055</v>
+        <v>-0.998861904761905</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>-0.8596465101108939</v>
+        <v>-0.8596465101108935</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>-0.1392153946510116</v>
+        <v>-0.1392153946510114</v>
       </c>
       <c r="E82" s="2" t="n"/>
       <c r="F82" s="2" t="n"/>
@@ -1861,13 +1861,13 @@
         <v>-0.328</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>-0.9983952380952388</v>
+        <v>-0.9983952380952382</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>-0.8643647749510766</v>
+        <v>-0.8643647749510762</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>-0.1340304631441622</v>
+        <v>-0.134030463144162</v>
       </c>
       <c r="E83" s="2" t="n"/>
       <c r="F83" s="2" t="n"/>
@@ -1878,13 +1878,13 @@
         <v>-0.332</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>-0.9975142857142864</v>
+        <v>-0.9975142857142858</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>-0.8690830397912592</v>
+        <v>-0.8690830397912589</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>-0.1284312459230271</v>
+        <v>-0.1284312459230269</v>
       </c>
       <c r="E84" s="2" t="n"/>
       <c r="F84" s="2" t="n"/>
@@ -1895,13 +1895,13 @@
         <v>-0.336</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>-0.9962428571428579</v>
+        <v>-0.9962428571428573</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>-0.8738013046314419</v>
+        <v>-0.8738013046314415</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>-0.122441552511416</v>
+        <v>-0.1224415525114159</v>
       </c>
       <c r="E85" s="2" t="n"/>
       <c r="F85" s="2" t="n"/>
@@ -1912,13 +1912,13 @@
         <v>-0.34</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>-0.9947095238095245</v>
+        <v>-0.9947095238095239</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>-0.8785195694716246</v>
+        <v>-0.8785195694716241</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>-0.1161899543378999</v>
+        <v>-0.1161899543378998</v>
       </c>
       <c r="E86" s="2" t="n"/>
       <c r="F86" s="2" t="n"/>
@@ -1929,13 +1929,13 @@
         <v>-0.344</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>-0.9928142857142864</v>
+        <v>-0.9928142857142859</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>-0.8832378343118071</v>
+        <v>-0.8832378343118068</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>-0.1095764514024793</v>
+        <v>-0.1095764514024791</v>
       </c>
       <c r="E87" s="2" t="n"/>
       <c r="F87" s="2" t="n"/>
@@ -1946,13 +1946,13 @@
         <v>-0.348</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>-0.9906761904761912</v>
+        <v>-0.9906761904761905</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>-0.8879560991519898</v>
+        <v>-0.8879560991519895</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>-0.1027200913242013</v>
+        <v>-0.102720091324201</v>
       </c>
       <c r="E88" s="2" t="n"/>
       <c r="F88" s="2" t="n"/>
@@ -1963,13 +1963,13 @@
         <v>-0.352</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>-0.9883714285714291</v>
+        <v>-0.9883714285714287</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>-0.8926743639921725</v>
+        <v>-0.8926743639921721</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>-0.09569706457925664</v>
+        <v>-0.09569706457925653</v>
       </c>
       <c r="E89" s="2" t="n"/>
       <c r="F89" s="2" t="n"/>
@@ -1980,13 +1980,13 @@
         <v>-0.356</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>-0.9860000000000007</v>
+        <v>-0.9860000000000001</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>-0.897392628832355</v>
+        <v>-0.8973926288323547</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>-0.08860737116764561</v>
+        <v>-0.08860737116764539</v>
       </c>
       <c r="E90" s="2" t="n"/>
       <c r="F90" s="2" t="n"/>
@@ -1997,13 +1997,13 @@
         <v>-0.36</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>-0.9836190476190483</v>
+        <v>-0.9836190476190477</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>-0.9021108936725377</v>
+        <v>-0.9021108936725374</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>-0.08150815394651056</v>
+        <v>-0.08150815394651034</v>
       </c>
       <c r="E91" s="2" t="n"/>
       <c r="F91" s="2" t="n"/>
@@ -2014,13 +2014,13 @@
         <v>-0.364</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>-0.9812619047619056</v>
+        <v>-0.9812619047619049</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>-0.9068291585127204</v>
+        <v>-0.9068291585127199</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>-0.07443274624918517</v>
+        <v>-0.07443274624918494</v>
       </c>
       <c r="E92" s="2" t="n"/>
       <c r="F92" s="2" t="n"/>
@@ -2031,13 +2031,13 @@
         <v>-0.368</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>-0.9789666666666673</v>
+        <v>-0.9789666666666668</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>-0.9115474233529031</v>
+        <v>-0.9115474233529026</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>-0.06741924331376425</v>
+        <v>-0.06741924331376414</v>
       </c>
       <c r="E93" s="2" t="n"/>
       <c r="F93" s="2" t="n"/>
@@ -2048,13 +2048,13 @@
         <v>-0.372</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>-0.9768523809523817</v>
+        <v>-0.976852380952381</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>-0.9162656881930857</v>
+        <v>-0.9162656881930853</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>-0.06058669275929596</v>
+        <v>-0.06058669275929573</v>
       </c>
       <c r="E94" s="2" t="n"/>
       <c r="F94" s="2" t="n"/>
@@ -2065,13 +2065,13 @@
         <v>-0.376</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>-0.9749619047619054</v>
+        <v>-0.9749619047619048</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>-0.9209839530332684</v>
+        <v>-0.920983953033268</v>
       </c>
       <c r="D95" s="2" t="n">
-        <v>-0.05397795172863695</v>
+        <v>-0.05397795172863684</v>
       </c>
       <c r="E95" s="2" t="n"/>
       <c r="F95" s="2" t="n"/>
@@ -2082,13 +2082,13 @@
         <v>-0.38</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>-0.9734000000000007</v>
+        <v>-0.9734</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>-0.9257022178734511</v>
+        <v>-0.9257022178734506</v>
       </c>
       <c r="D96" s="2" t="n">
-        <v>-0.04769778212654963</v>
+        <v>-0.0476977821265494</v>
       </c>
       <c r="E96" s="2" t="n"/>
       <c r="F96" s="2" t="n"/>
@@ -2099,13 +2099,13 @@
         <v>-0.384</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>-0.9721047619047625</v>
+        <v>-0.9721047619047621</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>-0.9304204827136338</v>
+        <v>-0.9304204827136333</v>
       </c>
       <c r="D97" s="2" t="n">
-        <v>-0.04168427919112871</v>
+        <v>-0.04168427919112883</v>
       </c>
       <c r="E97" s="2" t="n"/>
       <c r="F97" s="2" t="n"/>
@@ -2116,13 +2116,13 @@
         <v>-0.388</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>-0.9711190476190483</v>
+        <v>-0.9711190476190478</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>-0.9351387475538164</v>
+        <v>-0.935138747553816</v>
       </c>
       <c r="D98" s="2" t="n">
-        <v>-0.0359803000652319</v>
+        <v>-0.03598030006523179</v>
       </c>
       <c r="E98" s="2" t="n"/>
       <c r="F98" s="2" t="n"/>
@@ -2133,13 +2133,13 @@
         <v>-0.392</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>-0.9704904761904769</v>
+        <v>-0.9704904761904763</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>-0.9398570123939991</v>
+        <v>-0.9398570123939987</v>
       </c>
       <c r="D99" s="2" t="n">
-        <v>-0.0306334637964778</v>
+        <v>-0.03063346379647769</v>
       </c>
       <c r="E99" s="2" t="n"/>
       <c r="F99" s="2" t="n"/>
@@ -2150,13 +2150,13 @@
         <v>-0.396</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>-0.9703285714285721</v>
+        <v>-0.9703285714285715</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>-0.9445752772341817</v>
+        <v>-0.9445752772341813</v>
       </c>
       <c r="D100" s="2" t="n">
-        <v>-0.02575329419439043</v>
+        <v>-0.02575329419439021</v>
       </c>
       <c r="E100" s="2" t="n"/>
       <c r="F100" s="2" t="n"/>
@@ -2167,10 +2167,10 @@
         <v>-0.4</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>-0.9705666666666674</v>
+        <v>-0.9705666666666669</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>-0.9492935420743643</v>
+        <v>-0.9492935420743639</v>
       </c>
       <c r="D101" s="2" t="n">
         <v>-0.02127312459230302</v>
@@ -2184,13 +2184,13 @@
         <v>-0.404</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>-0.9712952380952388</v>
+        <v>-0.9712952380952382</v>
       </c>
       <c r="C102" s="2" t="n">
-        <v>-0.954011806914547</v>
+        <v>-0.9540118069145466</v>
       </c>
       <c r="D102" s="2" t="n">
-        <v>-0.01728343118069176</v>
+        <v>-0.01728343118069164</v>
       </c>
       <c r="E102" s="2" t="n"/>
       <c r="F102" s="2" t="n"/>
@@ -2201,10 +2201,10 @@
         <v>-0.408</v>
       </c>
       <c r="B103" s="2" t="n">
-        <v>-0.9723619047619053</v>
+        <v>-0.9723619047619049</v>
       </c>
       <c r="C103" s="2" t="n">
-        <v>-0.9587300717547296</v>
+        <v>-0.9587300717547291</v>
       </c>
       <c r="D103" s="2" t="n">
         <v>-0.01363183300717574</v>
@@ -2218,13 +2218,13 @@
         <v>-0.412</v>
       </c>
       <c r="B104" s="2" t="n">
-        <v>-0.9738619047619054</v>
+        <v>-0.9738619047619048</v>
       </c>
       <c r="C104" s="2" t="n">
-        <v>-0.9634483365949122</v>
+        <v>-0.9634483365949118</v>
       </c>
       <c r="D104" s="2" t="n">
-        <v>-0.01041356816699313</v>
+        <v>-0.01041356816699301</v>
       </c>
       <c r="E104" s="2" t="n"/>
       <c r="F104" s="2" t="n"/>
@@ -2235,10 +2235,10 @@
         <v>-0.416</v>
       </c>
       <c r="B105" s="2" t="n">
-        <v>-0.9757476190476196</v>
+        <v>-0.9757476190476192</v>
       </c>
       <c r="C105" s="2" t="n">
-        <v>-0.9681666014350949</v>
+        <v>-0.9681666014350945</v>
       </c>
       <c r="D105" s="2" t="n">
         <v>-0.007581017612524721</v>
@@ -2252,13 +2252,13 @@
         <v>-0.42</v>
       </c>
       <c r="B106" s="2" t="n">
-        <v>-0.978133333333334</v>
+        <v>-0.9781333333333334</v>
       </c>
       <c r="C106" s="2" t="n">
-        <v>-0.9728848662752776</v>
+        <v>-0.9728848662752771</v>
       </c>
       <c r="D106" s="2" t="n">
-        <v>-0.005248467058056372</v>
+        <v>-0.005248467058056261</v>
       </c>
       <c r="E106" s="2" t="n"/>
       <c r="F106" s="2" t="n"/>
@@ -2269,13 +2269,13 @@
         <v>-0.424</v>
       </c>
       <c r="B107" s="2" t="n">
-        <v>-0.981028571428572</v>
+        <v>-0.9810285714285715</v>
       </c>
       <c r="C107" s="2" t="n">
-        <v>-0.9776031311154603</v>
+        <v>-0.9776031311154598</v>
       </c>
       <c r="D107" s="2" t="n">
-        <v>-0.003425440313111761</v>
+        <v>-0.00342544031311165</v>
       </c>
       <c r="E107" s="2" t="n"/>
       <c r="F107" s="2" t="n"/>
@@ -2286,13 +2286,13 @@
         <v>-0.428</v>
       </c>
       <c r="B108" s="2" t="n">
-        <v>-0.9843476190476197</v>
+        <v>-0.984347619047619</v>
       </c>
       <c r="C108" s="2" t="n">
-        <v>-0.9823213959556428</v>
+        <v>-0.9823213959556425</v>
       </c>
       <c r="D108" s="2" t="n">
-        <v>-0.002026223091976864</v>
+        <v>-0.002026223091976531</v>
       </c>
       <c r="E108" s="2" t="n"/>
       <c r="F108" s="2" t="n"/>
@@ -2303,13 +2303,13 @@
         <v>-0.432</v>
       </c>
       <c r="B109" s="2" t="n">
-        <v>-0.9880666666666672</v>
+        <v>-0.9880666666666666</v>
       </c>
       <c r="C109" s="2" t="n">
-        <v>-0.9870396607958255</v>
+        <v>-0.9870396607958252</v>
       </c>
       <c r="D109" s="2" t="n">
-        <v>-0.001027005870841702</v>
+        <v>-0.00102700587084148</v>
       </c>
       <c r="E109" s="2" t="n"/>
       <c r="F109" s="2" t="n"/>
@@ -2320,10 +2320,10 @@
         <v>-0.436</v>
       </c>
       <c r="B110" s="2" t="n">
-        <v>-0.9919904761904769</v>
+        <v>-0.9919904761904763</v>
       </c>
       <c r="C110" s="2" t="n">
-        <v>-0.9917579256360082</v>
+        <v>-0.9917579256360076</v>
       </c>
       <c r="D110" s="2" t="n">
         <v>-0.0002325505544686912</v>
@@ -2337,10 +2337,10 @@
         <v>-0.44</v>
       </c>
       <c r="B111" s="2" t="n">
-        <v>-0.9964761904761911</v>
+        <v>-0.9964761904761905</v>
       </c>
       <c r="C111" s="2" t="n">
-        <v>-0.9964761904761908</v>
+        <v>-0.9964761904761903</v>
       </c>
       <c r="D111" s="2" t="n">
         <v>-2.220446049250313e-16</v>
@@ -2371,10 +2371,10 @@
         <v>-0.448</v>
       </c>
       <c r="B113" s="2" t="n">
-        <v>-1.006500000000001</v>
+        <v>-1.0065</v>
       </c>
       <c r="C113" s="2" t="n">
-        <v>-1.006500000000001</v>
+        <v>-1.0065</v>
       </c>
       <c r="D113" s="2" t="n">
         <v>0</v>
@@ -2388,10 +2388,10 @@
         <v>-0.452</v>
       </c>
       <c r="B114" s="2" t="n">
-        <v>-1.012142857142858</v>
+        <v>-1.012142857142857</v>
       </c>
       <c r="C114" s="2" t="n">
-        <v>-1.012142857142858</v>
+        <v>-1.012142857142857</v>
       </c>
       <c r="D114" s="2" t="n">
         <v>0</v>
@@ -2456,10 +2456,10 @@
         <v>-0.468</v>
       </c>
       <c r="B118" s="2" t="n">
-        <v>-1.039285714285715</v>
+        <v>-1.039285714285714</v>
       </c>
       <c r="C118" s="2" t="n">
-        <v>-1.039285714285715</v>
+        <v>-1.039285714285714</v>
       </c>
       <c r="D118" s="2" t="n">
         <v>0</v>
@@ -2473,10 +2473,10 @@
         <v>-0.472</v>
       </c>
       <c r="B119" s="2" t="n">
-        <v>-1.046857142857144</v>
+        <v>-1.046857142857143</v>
       </c>
       <c r="C119" s="2" t="n">
-        <v>-1.046857142857144</v>
+        <v>-1.046857142857143</v>
       </c>
       <c r="D119" s="2" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>-0.476</v>
       </c>
       <c r="B120" s="2" t="n">
-        <v>-1.054761904761906</v>
+        <v>-1.054761904761905</v>
       </c>
       <c r="C120" s="2" t="n">
-        <v>-1.054761904761906</v>
+        <v>-1.054761904761905</v>
       </c>
       <c r="D120" s="2" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>-0.484</v>
       </c>
       <c r="B122" s="2" t="n">
-        <v>-1.072190476190477</v>
+        <v>-1.072190476190476</v>
       </c>
       <c r="C122" s="2" t="n">
-        <v>-1.072190476190477</v>
+        <v>-1.072190476190476</v>
       </c>
       <c r="D122" s="2" t="n">
         <v>0</v>
@@ -2558,10 +2558,10 @@
         <v>-0.492</v>
       </c>
       <c r="B124" s="2" t="n">
-        <v>-1.091142857142859</v>
+        <v>-1.091142857142858</v>
       </c>
       <c r="C124" s="2" t="n">
-        <v>-1.091142857142859</v>
+        <v>-1.091142857142858</v>
       </c>
       <c r="D124" s="2" t="n">
         <v>0</v>
@@ -2575,10 +2575,10 @@
         <v>-0.496</v>
       </c>
       <c r="B125" s="2" t="n">
-        <v>-1.101285714285716</v>
+        <v>-1.101285714285715</v>
       </c>
       <c r="C125" s="2" t="n">
-        <v>-1.101285714285716</v>
+        <v>-1.101285714285715</v>
       </c>
       <c r="D125" s="2" t="n">
         <v>0</v>
@@ -2644,7 +2644,7 @@
         <v>-0.292</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-0.1597234181343775</v>
+        <v>-0.1597234181343774</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Test SWV/DPV Analysis/Analysis Files/Pbp2.xlsx
+++ b/Data/Test SWV/DPV Analysis/Analysis Files/Pbp2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G126"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,13 +477,13 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>-0.004</v>
+        <v>-0.1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-0.609957142857143</v>
+        <v>-0.6181166666666673</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>-0.609957142857143</v>
+        <v>-0.6181166666666673</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>0</v>
@@ -498,13 +498,13 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>-0.008</v>
+        <v>-0.104</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>-0.6131404761904763</v>
+        <v>-0.6197547619047624</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>-0.6131404761904763</v>
+        <v>-0.6197547619047624</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>0</v>
@@ -515,13 +515,13 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>-0.012</v>
+        <v>-0.108</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>-0.613804761904762</v>
+        <v>-0.6214404761904766</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>-0.613804761904762</v>
+        <v>-0.6214404761904766</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>0</v>
@@ -532,13 +532,13 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>-0.016</v>
+        <v>-0.112</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>-0.6129333333333333</v>
+        <v>-0.6232571428571433</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>-0.6129333333333333</v>
+        <v>-0.6232571428571433</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>0</v>
@@ -549,13 +549,13 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>-0.02</v>
+        <v>-0.116</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>-0.6117142857142859</v>
+        <v>-0.6253285714285719</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>-0.6117142857142859</v>
+        <v>-0.6253285714285719</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>0</v>
@@ -566,13 +566,13 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>-0.024</v>
+        <v>-0.12</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>-0.6110714285714287</v>
+        <v>-0.6276380952380958</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>-0.6110714285714287</v>
+        <v>-0.6276380952380958</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>0</v>
@@ -583,13 +583,13 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>-0.028</v>
+        <v>-0.124</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>-0.6105</v>
+        <v>-0.6302571428571433</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>-0.6105</v>
+        <v>-0.6302571428571433</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>0</v>
@@ -600,13 +600,13 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>-0.032</v>
+        <v>-0.128</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>-0.6100619047619048</v>
+        <v>-0.6330904761904766</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>-0.6100619047619048</v>
+        <v>-0.6330904761904766</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>0</v>
@@ -617,13 +617,13 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>-0.036</v>
+        <v>-0.132</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>-0.6097190476190477</v>
+        <v>-0.6361476190476194</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>-0.6097190476190477</v>
+        <v>-0.6361476190476194</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>0</v>
@@ -634,13 +634,13 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>-0.04</v>
+        <v>-0.136</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>-0.6094523809523811</v>
+        <v>-0.63952380952381</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>-0.6094523809523811</v>
+        <v>-0.63952380952381</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>0</v>
@@ -651,13 +651,13 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>-0.044</v>
+        <v>-0.14</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>-0.6092904761904763</v>
+        <v>-0.6432666666666671</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>-0.6092904761904763</v>
+        <v>-0.6432666666666671</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>0</v>
@@ -668,13 +668,13 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>-0.048</v>
+        <v>-0.144</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>-0.6092285714285717</v>
+        <v>-0.6474142857142862</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>-0.6092285714285717</v>
+        <v>-0.6474142857142862</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>0</v>
@@ -685,16 +685,16 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>-0.052</v>
+        <v>-0.148</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>-0.6092571428571429</v>
+        <v>-0.6520428571428576</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>-0.6092571428571429</v>
+        <v>-0.6520428571428573</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0</v>
+        <v>-3.33066907387547e-16</v>
       </c>
       <c r="E14" s="2" t="n"/>
       <c r="F14" s="2" t="n"/>
@@ -702,16 +702,16 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>-0.056</v>
+        <v>-0.152</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>-0.6093714285714287</v>
+        <v>-0.6569857142857147</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>-0.6093714285714287</v>
+        <v>-0.6567611219830399</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0</v>
+        <v>-0.0002245923026747976</v>
       </c>
       <c r="E15" s="2" t="n"/>
       <c r="F15" s="2" t="n"/>
@@ -719,16 +719,16 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>-0.06</v>
+        <v>-0.156</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>-0.6096333333333334</v>
+        <v>-0.662419047619048</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>-0.6096333333333334</v>
+        <v>-0.6614793868232225</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0</v>
+        <v>-0.0009396607958255254</v>
       </c>
       <c r="E16" s="2" t="n"/>
       <c r="F16" s="2" t="n"/>
@@ -736,16 +736,16 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>-0.064</v>
+        <v>-0.16</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>-0.6100285714285714</v>
+        <v>-0.6683142857142861</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>-0.6100285714285714</v>
+        <v>-0.6661976516634052</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0</v>
+        <v>-0.002116634050880917</v>
       </c>
       <c r="E17" s="2" t="n"/>
       <c r="F17" s="2" t="n"/>
@@ -753,16 +753,16 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>-0.068</v>
+        <v>-0.164</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>-0.6105095238095238</v>
+        <v>-0.6747428571428575</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>-0.6105095238095238</v>
+        <v>-0.6709159165035878</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0</v>
+        <v>-0.003826940639269694</v>
       </c>
       <c r="E18" s="2" t="n"/>
       <c r="F18" s="2" t="n"/>
@@ -770,16 +770,16 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>-0.07199999999999999</v>
+        <v>-0.168</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>-0.611157142857143</v>
+        <v>-0.6817000000000004</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>-0.611157142857143</v>
+        <v>-0.6756341813437705</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0</v>
+        <v>-0.006065818656229904</v>
       </c>
       <c r="E19" s="2" t="n"/>
       <c r="F19" s="2" t="n"/>
@@ -787,16 +787,16 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>-0.076</v>
+        <v>-0.172</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>-0.6118619047619047</v>
+        <v>-0.6891476190476195</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>-0.6118619047619047</v>
+        <v>-0.6803524461839532</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0</v>
+        <v>-0.008795172863666267</v>
       </c>
       <c r="E20" s="2" t="n"/>
       <c r="F20" s="2" t="n"/>
@@ -804,16 +804,16 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>-0.08</v>
+        <v>-0.176</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>-0.6125666666666667</v>
+        <v>-0.6970476190476194</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>-0.6125666666666667</v>
+        <v>-0.6850707110241359</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0</v>
+        <v>-0.0119769080234835</v>
       </c>
       <c r="E21" s="2" t="n"/>
       <c r="F21" s="2" t="n"/>
@@ -821,16 +821,16 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>-0.08400000000000001</v>
+        <v>-0.18</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>-0.6133666666666666</v>
+        <v>-0.7055523809523814</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>-0.6133666666666666</v>
+        <v>-0.6897889758643184</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0</v>
+        <v>-0.01576340508806295</v>
       </c>
       <c r="E22" s="2" t="n"/>
       <c r="F22" s="2" t="n"/>
@@ -838,16 +838,16 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>-0.08799999999999999</v>
+        <v>-0.184</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>-0.6143380952380953</v>
+        <v>-0.7145142857142861</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>-0.6143380952380953</v>
+        <v>-0.6945072407045011</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0</v>
+        <v>-0.02000704500978501</v>
       </c>
       <c r="E23" s="2" t="n"/>
       <c r="F23" s="2" t="n"/>
@@ -855,16 +855,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>-0.092</v>
+        <v>-0.188</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>-0.6154523809523811</v>
+        <v>-0.7240000000000004</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>-0.6154523809523811</v>
+        <v>-0.6992255055446838</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0</v>
+        <v>-0.02477449445531665</v>
       </c>
       <c r="E24" s="2" t="n"/>
       <c r="F24" s="2" t="n"/>
@@ -872,16 +872,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>-0.096</v>
+        <v>-0.192</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>-0.6167666666666667</v>
+        <v>-0.7337333333333338</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>-0.6167666666666667</v>
+        <v>-0.7039437703848664</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0</v>
+        <v>-0.02978956294846735</v>
       </c>
       <c r="E25" s="2" t="n"/>
       <c r="F25" s="2" t="n"/>
@@ -889,16 +889,16 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>-0.1</v>
+        <v>-0.196</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>-0.6181809523809525</v>
+        <v>-0.743919047619048</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>-0.6181809523809525</v>
+        <v>-0.7086620352250491</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0</v>
+        <v>-0.03525701239399892</v>
       </c>
       <c r="E26" s="2" t="n"/>
       <c r="F26" s="2" t="n"/>
@@ -906,16 +906,16 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>-0.104</v>
+        <v>-0.2</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>-0.6197380952380953</v>
+        <v>-0.7544619047619052</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>-0.6197380952380953</v>
+        <v>-0.7133803000652317</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>0</v>
+        <v>-0.04108160469667355</v>
       </c>
       <c r="E27" s="2" t="n"/>
       <c r="F27" s="2" t="n"/>
@@ -923,16 +923,16 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>-0.108</v>
+        <v>-0.204</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>-0.6213952380952381</v>
+        <v>-0.7653904761904766</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>-0.6213952380952381</v>
+        <v>-0.7180985649054143</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0</v>
+        <v>-0.04729191128506227</v>
       </c>
       <c r="E28" s="2" t="n"/>
       <c r="F28" s="2" t="n"/>
@@ -940,16 +940,16 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>-0.112</v>
+        <v>-0.208</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>-0.623257142857143</v>
+        <v>-0.7766047619047625</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>-0.623257142857143</v>
+        <v>-0.722816829745597</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0</v>
+        <v>-0.05378793215916544</v>
       </c>
       <c r="E29" s="2" t="n"/>
       <c r="F29" s="2" t="n"/>
@@ -957,16 +957,16 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>-0.116</v>
+        <v>-0.212</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>-0.6253285714285715</v>
+        <v>-0.7881047619047623</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>-0.6253285714285715</v>
+        <v>-0.7275350945857797</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0</v>
+        <v>-0.06056966731898261</v>
       </c>
       <c r="E30" s="2" t="n"/>
       <c r="F30" s="2" t="n"/>
@@ -974,16 +974,16 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>-0.12</v>
+        <v>-0.216</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>-0.6276380952380953</v>
+        <v>-0.799628571428572</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>-0.6276380952380953</v>
+        <v>-0.7322533594259624</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0</v>
+        <v>-0.06737521200260965</v>
       </c>
       <c r="E31" s="2" t="n"/>
       <c r="F31" s="2" t="n"/>
@@ -991,16 +991,16 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>-0.124</v>
+        <v>-0.22</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>-0.6302571428571428</v>
+        <v>-0.8113714285714293</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>-0.6302571428571428</v>
+        <v>-0.736971624266145</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0</v>
+        <v>-0.07439980430528426</v>
       </c>
       <c r="E32" s="2" t="n"/>
       <c r="F32" s="2" t="n"/>
@@ -1008,16 +1008,16 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>-0.128</v>
+        <v>-0.224</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>-0.6330904761904763</v>
+        <v>-0.8231714285714291</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>-0.6330904761904763</v>
+        <v>-0.7416898891063277</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>0</v>
+        <v>-0.08148153946510139</v>
       </c>
       <c r="E33" s="2" t="n"/>
       <c r="F33" s="2" t="n"/>
@@ -1025,16 +1025,16 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>-0.132</v>
+        <v>-0.228</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>-0.6361476190476191</v>
+        <v>-0.8349952380952388</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>-0.6361476190476191</v>
+        <v>-0.7464081539465103</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>0</v>
+        <v>-0.08858708414872851</v>
       </c>
       <c r="E34" s="2" t="n"/>
       <c r="F34" s="2" t="n"/>
@@ -1042,16 +1042,16 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>-0.136</v>
+        <v>-0.232</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>-0.6395238095238096</v>
+        <v>-0.8467904761904768</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>-0.6395238095238096</v>
+        <v>-0.751126418786693</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>0</v>
+        <v>-0.09566405740378381</v>
       </c>
       <c r="E35" s="2" t="n"/>
       <c r="F35" s="2" t="n"/>
@@ -1059,16 +1059,16 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>-0.14</v>
+        <v>-0.236</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>-0.6432666666666668</v>
+        <v>-0.8584666666666672</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>-0.6432666666666668</v>
+        <v>-0.7558446836268755</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>0</v>
+        <v>-0.1026219830397916</v>
       </c>
       <c r="E36" s="2" t="n"/>
       <c r="F36" s="2" t="n"/>
@@ -1076,16 +1076,16 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>-0.144</v>
+        <v>-0.24</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>-0.6474142857142858</v>
+        <v>-0.8699000000000006</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>-0.6474142857142858</v>
+        <v>-0.7605629484670582</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>0</v>
+        <v>-0.1093370515329424</v>
       </c>
       <c r="E37" s="2" t="n"/>
       <c r="F37" s="2" t="n"/>
@@ -1093,16 +1093,16 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>-0.148</v>
+        <v>-0.244</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>-0.6520428571428573</v>
+        <v>-0.8810904761904768</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>-0.6520428571428569</v>
+        <v>-0.7652812133072409</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>-3.33066907387547e-16</v>
+        <v>-0.1158092628832359</v>
       </c>
       <c r="E38" s="2" t="n"/>
       <c r="F38" s="2" t="n"/>
@@ -1110,16 +1110,16 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>-0.152</v>
+        <v>-0.248</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>-0.6569857142857143</v>
+        <v>-0.892019047619048</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>-0.6567611219830396</v>
+        <v>-0.7699994781474235</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>-0.0002245923026746866</v>
+        <v>-0.1220195694716245</v>
       </c>
       <c r="E39" s="2" t="n"/>
       <c r="F39" s="2" t="n"/>
@@ -1127,16 +1127,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>-0.156</v>
+        <v>-0.252</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>-0.6624190476190477</v>
+        <v>-0.9027523809523815</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>-0.6614793868232223</v>
+        <v>-0.7747177429876062</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>-0.0009396607958254144</v>
+        <v>-0.1280346379647753</v>
       </c>
       <c r="E40" s="2" t="n"/>
       <c r="F40" s="2" t="n"/>
@@ -1144,16 +1144,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>-0.16</v>
+        <v>-0.256</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>-0.6683142857142857</v>
+        <v>-0.9131190476190482</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>-0.6661976516634049</v>
+        <v>-0.7794360078277889</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>-0.002116634050880806</v>
+        <v>-0.1336830397912593</v>
       </c>
       <c r="E41" s="2" t="n"/>
       <c r="F41" s="2" t="n"/>
@@ -1161,16 +1161,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>-0.164</v>
+        <v>-0.26</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>-0.6747428571428572</v>
+        <v>-0.9230476190476197</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>-0.6709159165035876</v>
+        <v>-0.7841542726679716</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>-0.003826940639269583</v>
+        <v>-0.1388933463796481</v>
       </c>
       <c r="E42" s="2" t="n"/>
       <c r="F42" s="2" t="n"/>
@@ -1178,16 +1178,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>-0.168</v>
+        <v>-0.264</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>-0.6817</v>
+        <v>-0.9325047619047626</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>-0.6756341813437703</v>
+        <v>-0.7888725375081542</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>-0.006065818656229682</v>
+        <v>-0.1436322243966084</v>
       </c>
       <c r="E43" s="2" t="n"/>
       <c r="F43" s="2" t="n"/>
@@ -1195,16 +1195,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>-0.172</v>
+        <v>-0.268</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>-0.6891476190476191</v>
+        <v>-0.9413238095238101</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>-0.6803524461839529</v>
+        <v>-0.7935908023483369</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>-0.008795172863666267</v>
+        <v>-0.1477330071754732</v>
       </c>
       <c r="E44" s="2" t="n"/>
       <c r="F44" s="2" t="n"/>
@@ -1212,16 +1212,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>-0.176</v>
+        <v>-0.272</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>-0.6970476190476191</v>
+        <v>-0.9495428571428577</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>-0.6850707110241355</v>
+        <v>-0.7983090671885195</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>-0.01197690802348361</v>
+        <v>-0.1512337899543382</v>
       </c>
       <c r="E45" s="2" t="n"/>
       <c r="F45" s="2" t="n"/>
@@ -1229,16 +1229,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>-0.18</v>
+        <v>-0.276</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>-0.705552380952381</v>
+        <v>-0.9572380952380959</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>-0.6897889758643182</v>
+        <v>-0.8030273320287021</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>-0.01576340508806284</v>
+        <v>-0.1542107632093938</v>
       </c>
       <c r="E46" s="2" t="n"/>
       <c r="F46" s="2" t="n"/>
@@ -1246,16 +1246,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>-0.184</v>
+        <v>-0.28</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>-0.7145142857142857</v>
+        <v>-0.9643142857142865</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>-0.6945072407045008</v>
+        <v>-0.8077455968688848</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>-0.0200070450097849</v>
+        <v>-0.1565686888454016</v>
       </c>
       <c r="E47" s="2" t="n"/>
       <c r="F47" s="2" t="n"/>
@@ -1263,16 +1263,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>-0.188</v>
+        <v>-0.284</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>-0.724</v>
+        <v>-0.9707476190476196</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>-0.6992255055446834</v>
+        <v>-0.8124638617090674</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>-0.02477449445531654</v>
+        <v>-0.1582837573385523</v>
       </c>
       <c r="E48" s="2" t="n"/>
       <c r="F48" s="2" t="n"/>
@@ -1280,16 +1280,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>-0.192</v>
+        <v>-0.288</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>-0.7337333333333333</v>
+        <v>-0.9765666666666674</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>-0.7039437703848661</v>
+        <v>-0.81718212654925</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>-0.02978956294846724</v>
+        <v>-0.1593845401174173</v>
       </c>
       <c r="E49" s="2" t="n"/>
       <c r="F49" s="2" t="n"/>
@@ -1297,16 +1297,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>-0.196</v>
+        <v>-0.292</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>-0.7439190476190476</v>
+        <v>-0.9816238095238101</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>-0.7086620352250488</v>
+        <v>-0.8219003913894327</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>-0.03525701239399881</v>
+        <v>-0.1597234181343774</v>
       </c>
       <c r="E50" s="2" t="n"/>
       <c r="F50" s="2" t="n"/>
@@ -1314,16 +1314,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>-0.2</v>
+        <v>-0.296</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>-0.7544619047619049</v>
+        <v>-0.9860000000000007</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>-0.7133803000652315</v>
+        <v>-0.8266186562296154</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>-0.04108160469667343</v>
+        <v>-0.1593813437703853</v>
       </c>
       <c r="E51" s="2" t="n"/>
       <c r="F51" s="2" t="n"/>
@@ -1331,16 +1331,16 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>-0.204</v>
+        <v>-0.3</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>-0.7653904761904764</v>
+        <v>-0.9897190476190483</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>-0.718098564905414</v>
+        <v>-0.8313369210697981</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>-0.04729191128506238</v>
+        <v>-0.1583821265492502</v>
       </c>
       <c r="E52" s="2" t="n"/>
       <c r="F52" s="2" t="n"/>
@@ -1348,16 +1348,16 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>-0.208</v>
+        <v>-0.304</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>-0.776604761904762</v>
+        <v>-0.9927666666666672</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>-0.7228168297455967</v>
+        <v>-0.8360551859099807</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>-0.05378793215916533</v>
+        <v>-0.1567114807566865</v>
       </c>
       <c r="E53" s="2" t="n"/>
       <c r="F53" s="2" t="n"/>
@@ -1365,16 +1365,16 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>-0.212</v>
+        <v>-0.308</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>-0.788104761904762</v>
+        <v>-0.9951761904761911</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>-0.7275350945857794</v>
+        <v>-0.8407734507501633</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>-0.06056966731898261</v>
+        <v>-0.1544027397260278</v>
       </c>
       <c r="E54" s="2" t="n"/>
       <c r="F54" s="2" t="n"/>
@@ -1382,16 +1382,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>-0.216</v>
+        <v>-0.312</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>-0.7996285714285716</v>
+        <v>-0.9969666666666672</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>-0.732253359425962</v>
+        <v>-0.845491715590346</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>-0.06737521200260954</v>
+        <v>-0.1514749510763213</v>
       </c>
       <c r="E55" s="2" t="n"/>
       <c r="F55" s="2" t="n"/>
@@ -1399,16 +1399,16 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>-0.22</v>
+        <v>-0.316</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>-0.8113714285714287</v>
+        <v>-0.9981761904761911</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>-0.7369716242661446</v>
+        <v>-0.8502099804305286</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>-0.07439980430528415</v>
+        <v>-0.1479662100456625</v>
       </c>
       <c r="E56" s="2" t="n"/>
       <c r="F56" s="2" t="n"/>
@@ -1416,16 +1416,16 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>-0.224</v>
+        <v>-0.32</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>-0.8231714285714287</v>
+        <v>-0.9987714285714292</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>-0.7416898891063273</v>
+        <v>-0.8549282452707112</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>-0.08148153946510139</v>
+        <v>-0.143843183300718</v>
       </c>
       <c r="E57" s="2" t="n"/>
       <c r="F57" s="2" t="n"/>
@@ -1433,16 +1433,16 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>-0.228</v>
+        <v>-0.324</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>-0.8349952380952383</v>
+        <v>-0.9988619047619055</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>-0.7464081539465099</v>
+        <v>-0.8596465101108939</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>-0.0885870841487284</v>
+        <v>-0.1392153946510116</v>
       </c>
       <c r="E58" s="2" t="n"/>
       <c r="F58" s="2" t="n"/>
@@ -1450,16 +1450,16 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>-0.232</v>
+        <v>-0.328</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>-0.8467904761904763</v>
+        <v>-0.9983952380952388</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>-0.7511264187866926</v>
+        <v>-0.8643647749510766</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>-0.0956640574037837</v>
+        <v>-0.1340304631441622</v>
       </c>
       <c r="E59" s="2" t="n"/>
       <c r="F59" s="2" t="n"/>
@@ -1467,16 +1467,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>-0.236</v>
+        <v>-0.332</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>-0.8584666666666667</v>
+        <v>-0.9975142857142864</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>-0.7558446836268753</v>
+        <v>-0.8690830397912592</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>-0.1026219830397914</v>
+        <v>-0.1284312459230271</v>
       </c>
       <c r="E60" s="2" t="n"/>
       <c r="F60" s="2" t="n"/>
@@ -1484,16 +1484,16 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>-0.24</v>
+        <v>-0.336</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>-0.8699000000000001</v>
+        <v>-0.9962428571428579</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>-0.760562948467058</v>
+        <v>-0.8738013046314419</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>-0.1093370515329422</v>
+        <v>-0.122441552511416</v>
       </c>
       <c r="E61" s="2" t="n"/>
       <c r="F61" s="2" t="n"/>
@@ -1501,16 +1501,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>-0.244</v>
+        <v>-0.34</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>-0.8810904761904763</v>
+        <v>-0.9947095238095245</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>-0.7652812133072406</v>
+        <v>-0.8785195694716246</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>-0.1158092628832357</v>
+        <v>-0.1161899543378999</v>
       </c>
       <c r="E62" s="2" t="n"/>
       <c r="F62" s="2" t="n"/>
@@ -1518,16 +1518,16 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>-0.248</v>
+        <v>-0.344</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>-0.8920190476190477</v>
+        <v>-0.9928142857142864</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>-0.7699994781474232</v>
+        <v>-0.8832378343118071</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>-0.1220195694716245</v>
+        <v>-0.1095764514024793</v>
       </c>
       <c r="E63" s="2" t="n"/>
       <c r="F63" s="2" t="n"/>
@@ -1535,16 +1535,16 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>-0.252</v>
+        <v>-0.348</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>-0.902752380952381</v>
+        <v>-0.990676190476191</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>-0.7747177429876059</v>
+        <v>-0.8879560991519898</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>-0.1280346379647751</v>
+        <v>-0.1027200913242012</v>
       </c>
       <c r="E64" s="2" t="n"/>
       <c r="F64" s="2" t="n"/>
@@ -1552,16 +1552,16 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>-0.256</v>
+        <v>-0.352</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>-0.9131190476190476</v>
+        <v>-0.9883714285714291</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>-0.7794360078277884</v>
+        <v>-0.8926743639921725</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>-0.1336830397912592</v>
+        <v>-0.09569706457925664</v>
       </c>
       <c r="E65" s="2" t="n"/>
       <c r="F65" s="2" t="n"/>
@@ -1569,16 +1569,16 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>-0.26</v>
+        <v>-0.356</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>-0.9230476190476191</v>
+        <v>-0.9860000000000007</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>-0.7841542726679711</v>
+        <v>-0.897392628832355</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>-0.138893346379648</v>
+        <v>-0.08860737116764561</v>
       </c>
       <c r="E66" s="2" t="n"/>
       <c r="F66" s="2" t="n"/>
@@ -1586,16 +1586,16 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>-0.264</v>
+        <v>-0.36</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>-0.9325047619047621</v>
+        <v>-0.9836190476190483</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>-0.7888725375081538</v>
+        <v>-0.9021108936725377</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>-0.1436322243966083</v>
+        <v>-0.08150815394651056</v>
       </c>
       <c r="E67" s="2" t="n"/>
       <c r="F67" s="2" t="n"/>
@@ -1603,16 +1603,16 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>-0.268</v>
+        <v>-0.364</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>-0.9413238095238096</v>
+        <v>-0.9812619047619054</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>-0.7935908023483365</v>
+        <v>-0.9068291585127204</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>-0.1477330071754731</v>
+        <v>-0.07443274624918506</v>
       </c>
       <c r="E68" s="2" t="n"/>
       <c r="F68" s="2" t="n"/>
@@ -1620,16 +1620,16 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>-0.272</v>
+        <v>-0.368</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>-0.9495428571428572</v>
+        <v>-0.9789666666666673</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>-0.7983090671885191</v>
+        <v>-0.9115474233529031</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>-0.1512337899543381</v>
+        <v>-0.06741924331376425</v>
       </c>
       <c r="E69" s="2" t="n"/>
       <c r="F69" s="2" t="n"/>
@@ -1637,16 +1637,16 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>-0.276</v>
+        <v>-0.372</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>-0.9572380952380953</v>
+        <v>-0.9768523809523816</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>-0.8030273320287018</v>
+        <v>-0.9162656881930857</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>-0.1542107632093935</v>
+        <v>-0.06058669275929585</v>
       </c>
       <c r="E70" s="2" t="n"/>
       <c r="F70" s="2" t="n"/>
@@ -1654,16 +1654,16 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>-0.28</v>
+        <v>-0.376</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>-0.9643142857142859</v>
+        <v>-0.9749619047619054</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>-0.8077455968688845</v>
+        <v>-0.9209839530332684</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>-0.1565686888454014</v>
+        <v>-0.05397795172863695</v>
       </c>
       <c r="E71" s="2" t="n"/>
       <c r="F71" s="2" t="n"/>
@@ -1671,16 +1671,16 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>-0.284</v>
+        <v>-0.38</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>-0.9707476190476192</v>
+        <v>-0.9734000000000006</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>-0.812463861709067</v>
+        <v>-0.9257022178734511</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>-0.1582837573385522</v>
+        <v>-0.04769778212654951</v>
       </c>
       <c r="E72" s="2" t="n"/>
       <c r="F72" s="2" t="n"/>
@@ -1688,16 +1688,16 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>-0.288</v>
+        <v>-0.384</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>-0.9765666666666668</v>
+        <v>-0.9721047619047625</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>-0.8171821265492496</v>
+        <v>-0.9304204827136338</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>-0.1593845401174172</v>
+        <v>-0.04168427919112871</v>
       </c>
       <c r="E73" s="2" t="n"/>
       <c r="F73" s="2" t="n"/>
@@ -1705,16 +1705,16 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>-0.292</v>
+        <v>-0.388</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>-0.9816238095238097</v>
+        <v>-0.9711190476190483</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>-0.8219003913894323</v>
+        <v>-0.9351387475538164</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>-0.1597234181343774</v>
+        <v>-0.0359803000652319</v>
       </c>
       <c r="E74" s="2" t="n"/>
       <c r="F74" s="2" t="n"/>
@@ -1722,16 +1722,16 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>-0.296</v>
+        <v>-0.392</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>-0.9860000000000002</v>
+        <v>-0.9704904761904769</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>-0.8266186562296149</v>
+        <v>-0.9398570123939991</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>-0.1593813437703853</v>
+        <v>-0.0306334637964778</v>
       </c>
       <c r="E75" s="2" t="n"/>
       <c r="F75" s="2" t="n"/>
@@ -1739,16 +1739,16 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>-0.3</v>
+        <v>-0.396</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>-0.9897190476190477</v>
+        <v>-0.9703285714285721</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>-0.8313369210697976</v>
+        <v>-0.9445752772341817</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>-0.1583821265492501</v>
+        <v>-0.02575329419439043</v>
       </c>
       <c r="E76" s="2" t="n"/>
       <c r="F76" s="2" t="n"/>
@@ -1756,16 +1756,16 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>-0.304</v>
+        <v>-0.4</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>-0.9927666666666668</v>
+        <v>-0.9705666666666672</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>-0.8360551859099803</v>
+        <v>-0.9492935420743643</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>-0.1567114807566865</v>
+        <v>-0.02127312459230291</v>
       </c>
       <c r="E77" s="2" t="n"/>
       <c r="F77" s="2" t="n"/>
@@ -1773,16 +1773,16 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>-0.308</v>
+        <v>-0.404</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>-0.9951761904761907</v>
+        <v>-0.9712952380952387</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>-0.840773450750163</v>
+        <v>-0.954011806914547</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>-0.1544027397260277</v>
+        <v>-0.01728343118069164</v>
       </c>
       <c r="E78" s="2" t="n"/>
       <c r="F78" s="2" t="n"/>
@@ -1790,16 +1790,16 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>-0.312</v>
+        <v>-0.408</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>-0.9969666666666667</v>
+        <v>-0.9723619047619053</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>-0.8454917155903456</v>
+        <v>-0.9587300717547296</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>-0.151474951076321</v>
+        <v>-0.01363183300717574</v>
       </c>
       <c r="E79" s="2" t="n"/>
       <c r="F79" s="2" t="n"/>
@@ -1807,16 +1807,16 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>-0.316</v>
+        <v>-0.412</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>-0.9981761904761906</v>
+        <v>-0.9738619047619053</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>-0.8502099804305283</v>
+        <v>-0.9634483365949122</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>-0.1479662100456622</v>
+        <v>-0.01041356816699301</v>
       </c>
       <c r="E80" s="2" t="n"/>
       <c r="F80" s="2" t="n"/>
@@ -1824,16 +1824,16 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>-0.32</v>
+        <v>-0.416</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>-0.9987714285714286</v>
+        <v>-0.9757476190476198</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>-0.854928245270711</v>
+        <v>-0.9681666014350949</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>-0.1438431833007177</v>
+        <v>-0.007581017612524832</v>
       </c>
       <c r="E81" s="2" t="n"/>
       <c r="F81" s="2" t="n"/>
@@ -1841,16 +1841,16 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>-0.324</v>
+        <v>-0.42</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>-0.998861904761905</v>
+        <v>-0.978133333333334</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>-0.8596465101108935</v>
+        <v>-0.9728848662752776</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>-0.1392153946510114</v>
+        <v>-0.005248467058056372</v>
       </c>
       <c r="E82" s="2" t="n"/>
       <c r="F82" s="2" t="n"/>
@@ -1858,16 +1858,16 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>-0.328</v>
+        <v>-0.424</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>-0.9983952380952382</v>
+        <v>-0.981028571428572</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>-0.8643647749510762</v>
+        <v>-0.9776031311154603</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>-0.134030463144162</v>
+        <v>-0.003425440313111761</v>
       </c>
       <c r="E83" s="2" t="n"/>
       <c r="F83" s="2" t="n"/>
@@ -1875,16 +1875,16 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>-0.332</v>
+        <v>-0.428</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>-0.9975142857142858</v>
+        <v>-0.9843476190476196</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>-0.8690830397912589</v>
+        <v>-0.9823213959556428</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>-0.1284312459230269</v>
+        <v>-0.002026223091976753</v>
       </c>
       <c r="E84" s="2" t="n"/>
       <c r="F84" s="2" t="n"/>
@@ -1892,16 +1892,16 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>-0.336</v>
+        <v>-0.432</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>-0.9962428571428573</v>
+        <v>-0.9880666666666672</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>-0.8738013046314415</v>
+        <v>-0.9870396607958255</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>-0.1224415525114159</v>
+        <v>-0.001027005870841702</v>
       </c>
       <c r="E85" s="2" t="n"/>
       <c r="F85" s="2" t="n"/>
@@ -1909,16 +1909,16 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>-0.34</v>
+        <v>-0.436</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>-0.9947095238095239</v>
+        <v>-0.9919904761904768</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>-0.8785195694716241</v>
+        <v>-0.9917579256360082</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>-0.1161899543378998</v>
+        <v>-0.0002325505544685802</v>
       </c>
       <c r="E86" s="2" t="n"/>
       <c r="F86" s="2" t="n"/>
@@ -1926,16 +1926,16 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>-0.344</v>
+        <v>-0.44</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>-0.9928142857142859</v>
+        <v>-0.9964761904761911</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>-0.8832378343118068</v>
+        <v>-0.9964761904761908</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>-0.1095764514024791</v>
+        <v>-2.220446049250313e-16</v>
       </c>
       <c r="E87" s="2" t="n"/>
       <c r="F87" s="2" t="n"/>
@@ -1943,16 +1943,16 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>-0.348</v>
+        <v>-0.444</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>-0.9906761904761905</v>
+        <v>-1.00132380952381</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>-0.8879560991519895</v>
+        <v>-1.00132380952381</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>-0.102720091324201</v>
+        <v>0</v>
       </c>
       <c r="E88" s="2" t="n"/>
       <c r="F88" s="2" t="n"/>
@@ -1960,16 +1960,16 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>-0.352</v>
+        <v>-0.448</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>-0.9883714285714287</v>
+        <v>-1.006500000000001</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>-0.8926743639921721</v>
+        <v>-1.006500000000001</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>-0.09569706457925653</v>
+        <v>0</v>
       </c>
       <c r="E89" s="2" t="n"/>
       <c r="F89" s="2" t="n"/>
@@ -1977,16 +1977,16 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>-0.356</v>
+        <v>-0.452</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>-0.9860000000000001</v>
+        <v>-1.012142857142858</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>-0.8973926288323547</v>
+        <v>-1.012142857142858</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>-0.08860737116764539</v>
+        <v>0</v>
       </c>
       <c r="E90" s="2" t="n"/>
       <c r="F90" s="2" t="n"/>
@@ -1994,16 +1994,16 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>-0.36</v>
+        <v>-0.456</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>-0.9836190476190477</v>
+        <v>-1.018333333333334</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>-0.9021108936725374</v>
+        <v>-1.018333333333334</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>-0.08150815394651034</v>
+        <v>0</v>
       </c>
       <c r="E91" s="2" t="n"/>
       <c r="F91" s="2" t="n"/>
@@ -2011,16 +2011,16 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>-0.364</v>
+        <v>-0.46</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>-0.9812619047619049</v>
+        <v>-1.024761904761905</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>-0.9068291585127199</v>
+        <v>-1.024761904761905</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>-0.07443274624918494</v>
+        <v>0</v>
       </c>
       <c r="E92" s="2" t="n"/>
       <c r="F92" s="2" t="n"/>
@@ -2028,16 +2028,16 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>-0.368</v>
+        <v>-0.464</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>-0.9789666666666668</v>
+        <v>-1.031857142857143</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>-0.9115474233529026</v>
+        <v>-1.031857142857143</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>-0.06741924331376414</v>
+        <v>0</v>
       </c>
       <c r="E93" s="2" t="n"/>
       <c r="F93" s="2" t="n"/>
@@ -2045,16 +2045,16 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>-0.372</v>
+        <v>-0.468</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>-0.976852380952381</v>
+        <v>-1.039285714285715</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>-0.9162656881930853</v>
+        <v>-1.039285714285715</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>-0.06058669275929573</v>
+        <v>0</v>
       </c>
       <c r="E94" s="2" t="n"/>
       <c r="F94" s="2" t="n"/>
@@ -2062,16 +2062,16 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>-0.376</v>
+        <v>-0.472</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>-0.9749619047619048</v>
+        <v>-1.046857142857144</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>-0.920983953033268</v>
+        <v>-1.046857142857144</v>
       </c>
       <c r="D95" s="2" t="n">
-        <v>-0.05397795172863684</v>
+        <v>0</v>
       </c>
       <c r="E95" s="2" t="n"/>
       <c r="F95" s="2" t="n"/>
@@ -2079,16 +2079,16 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>-0.38</v>
+        <v>-0.476</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>-0.9734</v>
+        <v>-1.054761904761906</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>-0.9257022178734506</v>
+        <v>-1.054761904761906</v>
       </c>
       <c r="D96" s="2" t="n">
-        <v>-0.0476977821265494</v>
+        <v>0</v>
       </c>
       <c r="E96" s="2" t="n"/>
       <c r="F96" s="2" t="n"/>
@@ -2096,16 +2096,16 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>-0.384</v>
+        <v>-0.48</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>-0.9721047619047621</v>
+        <v>-1.063333333333334</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>-0.9304204827136333</v>
+        <v>-1.063333333333334</v>
       </c>
       <c r="D97" s="2" t="n">
-        <v>-0.04168427919112883</v>
+        <v>0</v>
       </c>
       <c r="E97" s="2" t="n"/>
       <c r="F97" s="2" t="n"/>
@@ -2113,16 +2113,16 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>-0.388</v>
+        <v>-0.484</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>-0.9711190476190478</v>
+        <v>-1.072190476190477</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>-0.935138747553816</v>
+        <v>-1.072190476190477</v>
       </c>
       <c r="D98" s="2" t="n">
-        <v>-0.03598030006523179</v>
+        <v>0</v>
       </c>
       <c r="E98" s="2" t="n"/>
       <c r="F98" s="2" t="n"/>
@@ -2130,16 +2130,16 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>-0.392</v>
+        <v>-0.488</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>-0.9704904761904763</v>
+        <v>-1.081428571428572</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>-0.9398570123939987</v>
+        <v>-1.081428571428572</v>
       </c>
       <c r="D99" s="2" t="n">
-        <v>-0.03063346379647769</v>
+        <v>0</v>
       </c>
       <c r="E99" s="2" t="n"/>
       <c r="F99" s="2" t="n"/>
@@ -2147,16 +2147,16 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>-0.396</v>
+        <v>-0.492</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>-0.9703285714285715</v>
+        <v>-1.091142857142859</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>-0.9445752772341813</v>
+        <v>-1.091142857142859</v>
       </c>
       <c r="D100" s="2" t="n">
-        <v>-0.02575329419439021</v>
+        <v>0</v>
       </c>
       <c r="E100" s="2" t="n"/>
       <c r="F100" s="2" t="n"/>
@@ -2164,16 +2164,16 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>-0.4</v>
+        <v>-0.496</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>-0.9705666666666669</v>
+        <v>-1.101285714285716</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>-0.9492935420743639</v>
+        <v>-1.101285714285716</v>
       </c>
       <c r="D101" s="2" t="n">
-        <v>-0.02127312459230302</v>
+        <v>0</v>
       </c>
       <c r="E101" s="2" t="n"/>
       <c r="F101" s="2" t="n"/>
@@ -2181,428 +2181,20 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>-0.404</v>
+        <v>-0.5</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>-0.9712952380952382</v>
+        <v>-1.111857142857144</v>
       </c>
       <c r="C102" s="2" t="n">
-        <v>-0.9540118069145466</v>
+        <v>-1.111857142857144</v>
       </c>
       <c r="D102" s="2" t="n">
-        <v>-0.01728343118069164</v>
+        <v>0</v>
       </c>
       <c r="E102" s="2" t="n"/>
       <c r="F102" s="2" t="n"/>
       <c r="G102" s="2" t="n"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="2" t="n">
-        <v>-0.408</v>
-      </c>
-      <c r="B103" s="2" t="n">
-        <v>-0.9723619047619049</v>
-      </c>
-      <c r="C103" s="2" t="n">
-        <v>-0.9587300717547291</v>
-      </c>
-      <c r="D103" s="2" t="n">
-        <v>-0.01363183300717574</v>
-      </c>
-      <c r="E103" s="2" t="n"/>
-      <c r="F103" s="2" t="n"/>
-      <c r="G103" s="2" t="n"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="2" t="n">
-        <v>-0.412</v>
-      </c>
-      <c r="B104" s="2" t="n">
-        <v>-0.9738619047619048</v>
-      </c>
-      <c r="C104" s="2" t="n">
-        <v>-0.9634483365949118</v>
-      </c>
-      <c r="D104" s="2" t="n">
-        <v>-0.01041356816699301</v>
-      </c>
-      <c r="E104" s="2" t="n"/>
-      <c r="F104" s="2" t="n"/>
-      <c r="G104" s="2" t="n"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="2" t="n">
-        <v>-0.416</v>
-      </c>
-      <c r="B105" s="2" t="n">
-        <v>-0.9757476190476192</v>
-      </c>
-      <c r="C105" s="2" t="n">
-        <v>-0.9681666014350945</v>
-      </c>
-      <c r="D105" s="2" t="n">
-        <v>-0.007581017612524721</v>
-      </c>
-      <c r="E105" s="2" t="n"/>
-      <c r="F105" s="2" t="n"/>
-      <c r="G105" s="2" t="n"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="2" t="n">
-        <v>-0.42</v>
-      </c>
-      <c r="B106" s="2" t="n">
-        <v>-0.9781333333333334</v>
-      </c>
-      <c r="C106" s="2" t="n">
-        <v>-0.9728848662752771</v>
-      </c>
-      <c r="D106" s="2" t="n">
-        <v>-0.005248467058056261</v>
-      </c>
-      <c r="E106" s="2" t="n"/>
-      <c r="F106" s="2" t="n"/>
-      <c r="G106" s="2" t="n"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="2" t="n">
-        <v>-0.424</v>
-      </c>
-      <c r="B107" s="2" t="n">
-        <v>-0.9810285714285715</v>
-      </c>
-      <c r="C107" s="2" t="n">
-        <v>-0.9776031311154598</v>
-      </c>
-      <c r="D107" s="2" t="n">
-        <v>-0.00342544031311165</v>
-      </c>
-      <c r="E107" s="2" t="n"/>
-      <c r="F107" s="2" t="n"/>
-      <c r="G107" s="2" t="n"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="2" t="n">
-        <v>-0.428</v>
-      </c>
-      <c r="B108" s="2" t="n">
-        <v>-0.984347619047619</v>
-      </c>
-      <c r="C108" s="2" t="n">
-        <v>-0.9823213959556425</v>
-      </c>
-      <c r="D108" s="2" t="n">
-        <v>-0.002026223091976531</v>
-      </c>
-      <c r="E108" s="2" t="n"/>
-      <c r="F108" s="2" t="n"/>
-      <c r="G108" s="2" t="n"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="2" t="n">
-        <v>-0.432</v>
-      </c>
-      <c r="B109" s="2" t="n">
-        <v>-0.9880666666666666</v>
-      </c>
-      <c r="C109" s="2" t="n">
-        <v>-0.9870396607958252</v>
-      </c>
-      <c r="D109" s="2" t="n">
-        <v>-0.00102700587084148</v>
-      </c>
-      <c r="E109" s="2" t="n"/>
-      <c r="F109" s="2" t="n"/>
-      <c r="G109" s="2" t="n"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="2" t="n">
-        <v>-0.436</v>
-      </c>
-      <c r="B110" s="2" t="n">
-        <v>-0.9919904761904763</v>
-      </c>
-      <c r="C110" s="2" t="n">
-        <v>-0.9917579256360076</v>
-      </c>
-      <c r="D110" s="2" t="n">
-        <v>-0.0002325505544686912</v>
-      </c>
-      <c r="E110" s="2" t="n"/>
-      <c r="F110" s="2" t="n"/>
-      <c r="G110" s="2" t="n"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="2" t="n">
-        <v>-0.44</v>
-      </c>
-      <c r="B111" s="2" t="n">
-        <v>-0.9964761904761905</v>
-      </c>
-      <c r="C111" s="2" t="n">
-        <v>-0.9964761904761903</v>
-      </c>
-      <c r="D111" s="2" t="n">
-        <v>-2.220446049250313e-16</v>
-      </c>
-      <c r="E111" s="2" t="n"/>
-      <c r="F111" s="2" t="n"/>
-      <c r="G111" s="2" t="n"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="2" t="n">
-        <v>-0.444</v>
-      </c>
-      <c r="B112" s="2" t="n">
-        <v>-1.00132380952381</v>
-      </c>
-      <c r="C112" s="2" t="n">
-        <v>-1.00132380952381</v>
-      </c>
-      <c r="D112" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E112" s="2" t="n"/>
-      <c r="F112" s="2" t="n"/>
-      <c r="G112" s="2" t="n"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="2" t="n">
-        <v>-0.448</v>
-      </c>
-      <c r="B113" s="2" t="n">
-        <v>-1.0065</v>
-      </c>
-      <c r="C113" s="2" t="n">
-        <v>-1.0065</v>
-      </c>
-      <c r="D113" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E113" s="2" t="n"/>
-      <c r="F113" s="2" t="n"/>
-      <c r="G113" s="2" t="n"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="2" t="n">
-        <v>-0.452</v>
-      </c>
-      <c r="B114" s="2" t="n">
-        <v>-1.012142857142857</v>
-      </c>
-      <c r="C114" s="2" t="n">
-        <v>-1.012142857142857</v>
-      </c>
-      <c r="D114" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E114" s="2" t="n"/>
-      <c r="F114" s="2" t="n"/>
-      <c r="G114" s="2" t="n"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="2" t="n">
-        <v>-0.456</v>
-      </c>
-      <c r="B115" s="2" t="n">
-        <v>-1.018333333333334</v>
-      </c>
-      <c r="C115" s="2" t="n">
-        <v>-1.018333333333334</v>
-      </c>
-      <c r="D115" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E115" s="2" t="n"/>
-      <c r="F115" s="2" t="n"/>
-      <c r="G115" s="2" t="n"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="2" t="n">
-        <v>-0.46</v>
-      </c>
-      <c r="B116" s="2" t="n">
-        <v>-1.024761904761905</v>
-      </c>
-      <c r="C116" s="2" t="n">
-        <v>-1.024761904761905</v>
-      </c>
-      <c r="D116" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E116" s="2" t="n"/>
-      <c r="F116" s="2" t="n"/>
-      <c r="G116" s="2" t="n"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="2" t="n">
-        <v>-0.464</v>
-      </c>
-      <c r="B117" s="2" t="n">
-        <v>-1.031857142857143</v>
-      </c>
-      <c r="C117" s="2" t="n">
-        <v>-1.031857142857143</v>
-      </c>
-      <c r="D117" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E117" s="2" t="n"/>
-      <c r="F117" s="2" t="n"/>
-      <c r="G117" s="2" t="n"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="2" t="n">
-        <v>-0.468</v>
-      </c>
-      <c r="B118" s="2" t="n">
-        <v>-1.039285714285714</v>
-      </c>
-      <c r="C118" s="2" t="n">
-        <v>-1.039285714285714</v>
-      </c>
-      <c r="D118" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E118" s="2" t="n"/>
-      <c r="F118" s="2" t="n"/>
-      <c r="G118" s="2" t="n"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="2" t="n">
-        <v>-0.472</v>
-      </c>
-      <c r="B119" s="2" t="n">
-        <v>-1.046857142857143</v>
-      </c>
-      <c r="C119" s="2" t="n">
-        <v>-1.046857142857143</v>
-      </c>
-      <c r="D119" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E119" s="2" t="n"/>
-      <c r="F119" s="2" t="n"/>
-      <c r="G119" s="2" t="n"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="2" t="n">
-        <v>-0.476</v>
-      </c>
-      <c r="B120" s="2" t="n">
-        <v>-1.054761904761905</v>
-      </c>
-      <c r="C120" s="2" t="n">
-        <v>-1.054761904761905</v>
-      </c>
-      <c r="D120" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E120" s="2" t="n"/>
-      <c r="F120" s="2" t="n"/>
-      <c r="G120" s="2" t="n"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="2" t="n">
-        <v>-0.48</v>
-      </c>
-      <c r="B121" s="2" t="n">
-        <v>-1.063333333333334</v>
-      </c>
-      <c r="C121" s="2" t="n">
-        <v>-1.063333333333334</v>
-      </c>
-      <c r="D121" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E121" s="2" t="n"/>
-      <c r="F121" s="2" t="n"/>
-      <c r="G121" s="2" t="n"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="2" t="n">
-        <v>-0.484</v>
-      </c>
-      <c r="B122" s="2" t="n">
-        <v>-1.072190476190476</v>
-      </c>
-      <c r="C122" s="2" t="n">
-        <v>-1.072190476190476</v>
-      </c>
-      <c r="D122" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E122" s="2" t="n"/>
-      <c r="F122" s="2" t="n"/>
-      <c r="G122" s="2" t="n"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="2" t="n">
-        <v>-0.488</v>
-      </c>
-      <c r="B123" s="2" t="n">
-        <v>-1.081428571428572</v>
-      </c>
-      <c r="C123" s="2" t="n">
-        <v>-1.081428571428572</v>
-      </c>
-      <c r="D123" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E123" s="2" t="n"/>
-      <c r="F123" s="2" t="n"/>
-      <c r="G123" s="2" t="n"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="2" t="n">
-        <v>-0.492</v>
-      </c>
-      <c r="B124" s="2" t="n">
-        <v>-1.091142857142858</v>
-      </c>
-      <c r="C124" s="2" t="n">
-        <v>-1.091142857142858</v>
-      </c>
-      <c r="D124" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E124" s="2" t="n"/>
-      <c r="F124" s="2" t="n"/>
-      <c r="G124" s="2" t="n"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="2" t="n">
-        <v>-0.496</v>
-      </c>
-      <c r="B125" s="2" t="n">
-        <v>-1.101285714285715</v>
-      </c>
-      <c r="C125" s="2" t="n">
-        <v>-1.101285714285715</v>
-      </c>
-      <c r="D125" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E125" s="2" t="n"/>
-      <c r="F125" s="2" t="n"/>
-      <c r="G125" s="2" t="n"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="2" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="B126" s="2" t="n">
-        <v>-1.111857142857144</v>
-      </c>
-      <c r="C126" s="2" t="n">
-        <v>-1.111857142857144</v>
-      </c>
-      <c r="D126" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E126" s="2" t="n"/>
-      <c r="F126" s="2" t="n"/>
-      <c r="G126" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data/Test SWV/DPV Analysis/Analysis Files/Pbp2.xlsx
+++ b/Data/Test SWV/DPV Analysis/Analysis Files/Pbp2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G102"/>
+  <dimension ref="A1:G126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,13 +477,13 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>-0.1</v>
+        <v>-0.004</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-0.6181166666666673</v>
+        <v>-0.6099571428571433</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>-0.6181166666666673</v>
+        <v>-0.6099571428571433</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>0</v>
@@ -493,18 +493,18 @@
         <v>-0.292</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>-0.1597234181343774</v>
+        <v>-0.1597234181343773</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>-0.104</v>
+        <v>-0.008</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>-0.6197547619047624</v>
+        <v>-0.6131404761904763</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>-0.6197547619047624</v>
+        <v>-0.6131404761904763</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>0</v>
@@ -515,13 +515,13 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>-0.108</v>
+        <v>-0.012</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>-0.6214404761904766</v>
+        <v>-0.613804761904762</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>-0.6214404761904766</v>
+        <v>-0.613804761904762</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>0</v>
@@ -532,13 +532,13 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>-0.112</v>
+        <v>-0.016</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>-0.6232571428571433</v>
+        <v>-0.6129333333333338</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>-0.6232571428571433</v>
+        <v>-0.6129333333333338</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>0</v>
@@ -549,13 +549,13 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>-0.116</v>
+        <v>-0.02</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>-0.6253285714285719</v>
+        <v>-0.6117142857142861</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>-0.6253285714285719</v>
+        <v>-0.6117142857142861</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>0</v>
@@ -566,13 +566,13 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>-0.12</v>
+        <v>-0.024</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>-0.6276380952380958</v>
+        <v>-0.6110714285714289</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>-0.6276380952380958</v>
+        <v>-0.6110714285714289</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>0</v>
@@ -583,13 +583,13 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>-0.124</v>
+        <v>-0.028</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>-0.6302571428571433</v>
+        <v>-0.6105000000000005</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>-0.6302571428571433</v>
+        <v>-0.6105000000000005</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>0</v>
@@ -600,13 +600,13 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>-0.128</v>
+        <v>-0.032</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>-0.6330904761904766</v>
+        <v>-0.6100619047619051</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>-0.6330904761904766</v>
+        <v>-0.6100619047619051</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>0</v>
@@ -617,13 +617,13 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>-0.132</v>
+        <v>-0.036</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>-0.6361476190476194</v>
+        <v>-0.6097190476190479</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>-0.6361476190476194</v>
+        <v>-0.6097190476190479</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>0</v>
@@ -634,13 +634,13 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>-0.136</v>
+        <v>-0.04</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>-0.63952380952381</v>
+        <v>-0.6094523809523813</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>-0.63952380952381</v>
+        <v>-0.6094523809523813</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>0</v>
@@ -651,13 +651,13 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>-0.14</v>
+        <v>-0.044</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>-0.6432666666666671</v>
+        <v>-0.6092904761904766</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>-0.6432666666666671</v>
+        <v>-0.6092904761904766</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>0</v>
@@ -668,13 +668,13 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>-0.144</v>
+        <v>-0.048</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>-0.6474142857142862</v>
+        <v>-0.6092285714285719</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>-0.6474142857142862</v>
+        <v>-0.6092285714285719</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>0</v>
@@ -685,16 +685,16 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>-0.148</v>
+        <v>-0.052</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>-0.6520428571428576</v>
+        <v>-0.6092571428571433</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>-0.6520428571428573</v>
+        <v>-0.6092571428571433</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-3.33066907387547e-16</v>
+        <v>0</v>
       </c>
       <c r="E14" s="2" t="n"/>
       <c r="F14" s="2" t="n"/>
@@ -702,16 +702,16 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>-0.152</v>
+        <v>-0.056</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>-0.6569857142857147</v>
+        <v>-0.609371428571429</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>-0.6567611219830399</v>
+        <v>-0.609371428571429</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.0002245923026747976</v>
+        <v>0</v>
       </c>
       <c r="E15" s="2" t="n"/>
       <c r="F15" s="2" t="n"/>
@@ -719,16 +719,16 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>-0.156</v>
+        <v>-0.06</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>-0.662419047619048</v>
+        <v>-0.6096333333333337</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>-0.6614793868232225</v>
+        <v>-0.6096333333333337</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.0009396607958255254</v>
+        <v>0</v>
       </c>
       <c r="E16" s="2" t="n"/>
       <c r="F16" s="2" t="n"/>
@@ -736,16 +736,16 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>-0.16</v>
+        <v>-0.064</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>-0.6683142857142861</v>
+        <v>-0.6100285714285718</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>-0.6661976516634052</v>
+        <v>-0.6100285714285718</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.002116634050880917</v>
+        <v>0</v>
       </c>
       <c r="E17" s="2" t="n"/>
       <c r="F17" s="2" t="n"/>
@@ -753,16 +753,16 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>-0.164</v>
+        <v>-0.068</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>-0.6747428571428575</v>
+        <v>-0.6105095238095242</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>-0.6709159165035878</v>
+        <v>-0.6105095238095242</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-0.003826940639269694</v>
+        <v>0</v>
       </c>
       <c r="E18" s="2" t="n"/>
       <c r="F18" s="2" t="n"/>
@@ -770,16 +770,16 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>-0.168</v>
+        <v>-0.07199999999999999</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>-0.6817000000000004</v>
+        <v>-0.6111571428571432</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>-0.6756341813437705</v>
+        <v>-0.6111571428571432</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-0.006065818656229904</v>
+        <v>0</v>
       </c>
       <c r="E19" s="2" t="n"/>
       <c r="F19" s="2" t="n"/>
@@ -787,16 +787,16 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>-0.172</v>
+        <v>-0.076</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>-0.6891476190476195</v>
+        <v>-0.6118619047619052</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>-0.6803524461839532</v>
+        <v>-0.6118619047619052</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-0.008795172863666267</v>
+        <v>0</v>
       </c>
       <c r="E20" s="2" t="n"/>
       <c r="F20" s="2" t="n"/>
@@ -804,16 +804,16 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>-0.176</v>
+        <v>-0.08</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>-0.6970476190476194</v>
+        <v>-0.612566666666667</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>-0.6850707110241359</v>
+        <v>-0.612566666666667</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-0.0119769080234835</v>
+        <v>0</v>
       </c>
       <c r="E21" s="2" t="n"/>
       <c r="F21" s="2" t="n"/>
@@ -821,16 +821,16 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>-0.18</v>
+        <v>-0.08400000000000001</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>-0.7055523809523814</v>
+        <v>-0.6133666666666671</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>-0.6897889758643184</v>
+        <v>-0.6133666666666671</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-0.01576340508806295</v>
+        <v>0</v>
       </c>
       <c r="E22" s="2" t="n"/>
       <c r="F22" s="2" t="n"/>
@@ -838,16 +838,16 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>-0.184</v>
+        <v>-0.08799999999999999</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>-0.7145142857142861</v>
+        <v>-0.6143380952380957</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>-0.6945072407045011</v>
+        <v>-0.6143380952380957</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-0.02000704500978501</v>
+        <v>0</v>
       </c>
       <c r="E23" s="2" t="n"/>
       <c r="F23" s="2" t="n"/>
@@ -855,16 +855,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>-0.188</v>
+        <v>-0.092</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>-0.7240000000000004</v>
+        <v>-0.6154523809523813</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>-0.6992255055446838</v>
+        <v>-0.6154523809523813</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-0.02477449445531665</v>
+        <v>0</v>
       </c>
       <c r="E24" s="2" t="n"/>
       <c r="F24" s="2" t="n"/>
@@ -872,16 +872,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>-0.192</v>
+        <v>-0.096</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>-0.7337333333333338</v>
+        <v>-0.6167666666666671</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>-0.7039437703848664</v>
+        <v>-0.6167666666666671</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>-0.02978956294846735</v>
+        <v>0</v>
       </c>
       <c r="E25" s="2" t="n"/>
       <c r="F25" s="2" t="n"/>
@@ -889,16 +889,16 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>-0.196</v>
+        <v>-0.1</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>-0.743919047619048</v>
+        <v>-0.6181809523809528</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>-0.7086620352250491</v>
+        <v>-0.6181809523809528</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>-0.03525701239399892</v>
+        <v>0</v>
       </c>
       <c r="E26" s="2" t="n"/>
       <c r="F26" s="2" t="n"/>
@@ -906,16 +906,16 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>-0.2</v>
+        <v>-0.104</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>-0.7544619047619052</v>
+        <v>-0.6197380952380958</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>-0.7133803000652317</v>
+        <v>-0.6197380952380958</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>-0.04108160469667355</v>
+        <v>0</v>
       </c>
       <c r="E27" s="2" t="n"/>
       <c r="F27" s="2" t="n"/>
@@ -923,16 +923,16 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>-0.204</v>
+        <v>-0.108</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>-0.7653904761904766</v>
+        <v>-0.6213952380952386</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>-0.7180985649054143</v>
+        <v>-0.6213952380952386</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>-0.04729191128506227</v>
+        <v>0</v>
       </c>
       <c r="E28" s="2" t="n"/>
       <c r="F28" s="2" t="n"/>
@@ -940,16 +940,16 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>-0.208</v>
+        <v>-0.112</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>-0.7766047619047625</v>
+        <v>-0.6232571428571433</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>-0.722816829745597</v>
+        <v>-0.6232571428571433</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>-0.05378793215916544</v>
+        <v>0</v>
       </c>
       <c r="E29" s="2" t="n"/>
       <c r="F29" s="2" t="n"/>
@@ -957,16 +957,16 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>-0.212</v>
+        <v>-0.116</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>-0.7881047619047623</v>
+        <v>-0.6253285714285719</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>-0.7275350945857797</v>
+        <v>-0.6253285714285719</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>-0.06056966731898261</v>
+        <v>0</v>
       </c>
       <c r="E30" s="2" t="n"/>
       <c r="F30" s="2" t="n"/>
@@ -974,16 +974,16 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>-0.216</v>
+        <v>-0.12</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>-0.799628571428572</v>
+        <v>-0.6276380952380958</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>-0.7322533594259624</v>
+        <v>-0.6276380952380958</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>-0.06737521200260965</v>
+        <v>0</v>
       </c>
       <c r="E31" s="2" t="n"/>
       <c r="F31" s="2" t="n"/>
@@ -991,16 +991,16 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>-0.22</v>
+        <v>-0.124</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>-0.8113714285714293</v>
+        <v>-0.6302571428571433</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>-0.736971624266145</v>
+        <v>-0.6302571428571433</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>-0.07439980430528426</v>
+        <v>0</v>
       </c>
       <c r="E32" s="2" t="n"/>
       <c r="F32" s="2" t="n"/>
@@ -1008,16 +1008,16 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>-0.224</v>
+        <v>-0.128</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>-0.8231714285714291</v>
+        <v>-0.6330904761904765</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>-0.7416898891063277</v>
+        <v>-0.6330904761904765</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>-0.08148153946510139</v>
+        <v>0</v>
       </c>
       <c r="E33" s="2" t="n"/>
       <c r="F33" s="2" t="n"/>
@@ -1025,16 +1025,16 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>-0.228</v>
+        <v>-0.132</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>-0.8349952380952388</v>
+        <v>-0.6361476190476194</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>-0.7464081539465103</v>
+        <v>-0.6361476190476194</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>-0.08858708414872851</v>
+        <v>0</v>
       </c>
       <c r="E34" s="2" t="n"/>
       <c r="F34" s="2" t="n"/>
@@ -1042,16 +1042,16 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>-0.232</v>
+        <v>-0.136</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>-0.8467904761904768</v>
+        <v>-0.6395238095238099</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>-0.751126418786693</v>
+        <v>-0.6395238095238099</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>-0.09566405740378381</v>
+        <v>0</v>
       </c>
       <c r="E35" s="2" t="n"/>
       <c r="F35" s="2" t="n"/>
@@ -1059,16 +1059,16 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>-0.236</v>
+        <v>-0.14</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>-0.8584666666666672</v>
+        <v>-0.6432666666666671</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>-0.7558446836268755</v>
+        <v>-0.6432666666666671</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>-0.1026219830397916</v>
+        <v>0</v>
       </c>
       <c r="E36" s="2" t="n"/>
       <c r="F36" s="2" t="n"/>
@@ -1076,16 +1076,16 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>-0.24</v>
+        <v>-0.144</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>-0.8699000000000006</v>
+        <v>-0.6474142857142862</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>-0.7605629484670582</v>
+        <v>-0.6474142857142862</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>-0.1093370515329424</v>
+        <v>0</v>
       </c>
       <c r="E37" s="2" t="n"/>
       <c r="F37" s="2" t="n"/>
@@ -1093,16 +1093,16 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>-0.244</v>
+        <v>-0.148</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>-0.8810904761904768</v>
+        <v>-0.6520428571428576</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>-0.7652812133072409</v>
+        <v>-0.6520428571428576</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>-0.1158092628832359</v>
+        <v>0</v>
       </c>
       <c r="E38" s="2" t="n"/>
       <c r="F38" s="2" t="n"/>
@@ -1110,16 +1110,16 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>-0.248</v>
+        <v>-0.152</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>-0.892019047619048</v>
+        <v>-0.6569857142857147</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>-0.7699994781474235</v>
+        <v>-0.6567611219830403</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>-0.1220195694716245</v>
+        <v>-0.0002245923026744645</v>
       </c>
       <c r="E39" s="2" t="n"/>
       <c r="F39" s="2" t="n"/>
@@ -1127,16 +1127,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>-0.252</v>
+        <v>-0.156</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>-0.9027523809523815</v>
+        <v>-0.6624190476190479</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>-0.7747177429876062</v>
+        <v>-0.6614793868232229</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>-0.1280346379647753</v>
+        <v>-0.0009396607958249703</v>
       </c>
       <c r="E40" s="2" t="n"/>
       <c r="F40" s="2" t="n"/>
@@ -1144,16 +1144,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>-0.256</v>
+        <v>-0.16</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>-0.9131190476190482</v>
+        <v>-0.6683142857142861</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>-0.7794360078277889</v>
+        <v>-0.6661976516634056</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>-0.1336830397912593</v>
+        <v>-0.002116634050880473</v>
       </c>
       <c r="E41" s="2" t="n"/>
       <c r="F41" s="2" t="n"/>
@@ -1161,16 +1161,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>-0.26</v>
+        <v>-0.164</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>-0.9230476190476197</v>
+        <v>-0.6747428571428575</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>-0.7841542726679716</v>
+        <v>-0.6709159165035883</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>-0.1388933463796481</v>
+        <v>-0.00382694063926925</v>
       </c>
       <c r="E42" s="2" t="n"/>
       <c r="F42" s="2" t="n"/>
@@ -1178,16 +1178,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>-0.264</v>
+        <v>-0.168</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>-0.9325047619047626</v>
+        <v>-0.6817000000000004</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>-0.7888725375081542</v>
+        <v>-0.6756341813437708</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>-0.1436322243966084</v>
+        <v>-0.006065818656229571</v>
       </c>
       <c r="E43" s="2" t="n"/>
       <c r="F43" s="2" t="n"/>
@@ -1195,16 +1195,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>-0.268</v>
+        <v>-0.172</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>-0.9413238095238101</v>
+        <v>-0.6891476190476193</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>-0.7935908023483369</v>
+        <v>-0.6803524461839535</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>-0.1477330071754732</v>
+        <v>-0.008795172863665823</v>
       </c>
       <c r="E44" s="2" t="n"/>
       <c r="F44" s="2" t="n"/>
@@ -1212,16 +1212,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>-0.272</v>
+        <v>-0.176</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>-0.9495428571428577</v>
+        <v>-0.6970476190476194</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>-0.7983090671885195</v>
+        <v>-0.6850707110241362</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>-0.1512337899543382</v>
+        <v>-0.01197690802348317</v>
       </c>
       <c r="E45" s="2" t="n"/>
       <c r="F45" s="2" t="n"/>
@@ -1229,16 +1229,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>-0.276</v>
+        <v>-0.18</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>-0.9572380952380959</v>
+        <v>-0.7055523809523814</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>-0.8030273320287021</v>
+        <v>-0.6897889758643188</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>-0.1542107632093938</v>
+        <v>-0.01576340508806262</v>
       </c>
       <c r="E46" s="2" t="n"/>
       <c r="F46" s="2" t="n"/>
@@ -1246,16 +1246,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>-0.28</v>
+        <v>-0.184</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>-0.9643142857142865</v>
+        <v>-0.7145142857142861</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>-0.8077455968688848</v>
+        <v>-0.6945072407045014</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>-0.1565686888454016</v>
+        <v>-0.02000704500978467</v>
       </c>
       <c r="E47" s="2" t="n"/>
       <c r="F47" s="2" t="n"/>
@@ -1263,16 +1263,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>-0.284</v>
+        <v>-0.188</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>-0.9707476190476196</v>
+        <v>-0.7240000000000004</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>-0.8124638617090674</v>
+        <v>-0.6992255055446841</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>-0.1582837573385523</v>
+        <v>-0.02477449445531632</v>
       </c>
       <c r="E48" s="2" t="n"/>
       <c r="F48" s="2" t="n"/>
@@ -1280,16 +1280,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>-0.288</v>
+        <v>-0.192</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>-0.9765666666666674</v>
+        <v>-0.7337333333333338</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>-0.81718212654925</v>
+        <v>-0.7039437703848668</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>-0.1593845401174173</v>
+        <v>-0.02978956294846702</v>
       </c>
       <c r="E49" s="2" t="n"/>
       <c r="F49" s="2" t="n"/>
@@ -1297,16 +1297,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>-0.292</v>
+        <v>-0.196</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>-0.9816238095238101</v>
+        <v>-0.743919047619048</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>-0.8219003913894327</v>
+        <v>-0.7086620352250494</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>-0.1597234181343774</v>
+        <v>-0.03525701239399859</v>
       </c>
       <c r="E50" s="2" t="n"/>
       <c r="F50" s="2" t="n"/>
@@ -1314,16 +1314,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>-0.296</v>
+        <v>-0.2</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>-0.9860000000000007</v>
+        <v>-0.7544619047619052</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>-0.8266186562296154</v>
+        <v>-0.7133803000652321</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>-0.1593813437703853</v>
+        <v>-0.0410816046966731</v>
       </c>
       <c r="E51" s="2" t="n"/>
       <c r="F51" s="2" t="n"/>
@@ -1331,16 +1331,16 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>-0.3</v>
+        <v>-0.204</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>-0.9897190476190483</v>
+        <v>-0.7653904761904766</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>-0.8313369210697981</v>
+        <v>-0.7180985649054147</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>-0.1583821265492502</v>
+        <v>-0.04729191128506194</v>
       </c>
       <c r="E52" s="2" t="n"/>
       <c r="F52" s="2" t="n"/>
@@ -1348,16 +1348,16 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>-0.304</v>
+        <v>-0.208</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>-0.9927666666666672</v>
+        <v>-0.7766047619047625</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>-0.8360551859099807</v>
+        <v>-0.7228168297455974</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>-0.1567114807566865</v>
+        <v>-0.05378793215916511</v>
       </c>
       <c r="E53" s="2" t="n"/>
       <c r="F53" s="2" t="n"/>
@@ -1365,16 +1365,16 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>-0.308</v>
+        <v>-0.212</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>-0.9951761904761911</v>
+        <v>-0.7881047619047625</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>-0.8407734507501633</v>
+        <v>-0.72753509458578</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>-0.1544027397260278</v>
+        <v>-0.0605696673189825</v>
       </c>
       <c r="E54" s="2" t="n"/>
       <c r="F54" s="2" t="n"/>
@@ -1382,16 +1382,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>-0.312</v>
+        <v>-0.216</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>-0.9969666666666672</v>
+        <v>-0.799628571428572</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>-0.845491715590346</v>
+        <v>-0.7322533594259626</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>-0.1514749510763213</v>
+        <v>-0.06737521200260943</v>
       </c>
       <c r="E55" s="2" t="n"/>
       <c r="F55" s="2" t="n"/>
@@ -1399,16 +1399,16 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>-0.316</v>
+        <v>-0.22</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>-0.9981761904761911</v>
+        <v>-0.8113714285714293</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>-0.8502099804305286</v>
+        <v>-0.7369716242661453</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>-0.1479662100456625</v>
+        <v>-0.07439980430528403</v>
       </c>
       <c r="E56" s="2" t="n"/>
       <c r="F56" s="2" t="n"/>
@@ -1416,16 +1416,16 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>-0.32</v>
+        <v>-0.224</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>-0.9987714285714292</v>
+        <v>-0.8231714285714292</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>-0.8549282452707112</v>
+        <v>-0.7416898891063279</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>-0.143843183300718</v>
+        <v>-0.08148153946510128</v>
       </c>
       <c r="E57" s="2" t="n"/>
       <c r="F57" s="2" t="n"/>
@@ -1433,16 +1433,16 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>-0.324</v>
+        <v>-0.228</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>-0.9988619047619055</v>
+        <v>-0.8349952380952388</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>-0.8596465101108939</v>
+        <v>-0.7464081539465106</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>-0.1392153946510116</v>
+        <v>-0.08858708414872818</v>
       </c>
       <c r="E58" s="2" t="n"/>
       <c r="F58" s="2" t="n"/>
@@ -1450,16 +1450,16 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>-0.328</v>
+        <v>-0.232</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>-0.9983952380952388</v>
+        <v>-0.8467904761904768</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>-0.8643647749510766</v>
+        <v>-0.7511264187866933</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>-0.1340304631441622</v>
+        <v>-0.09566405740378348</v>
       </c>
       <c r="E59" s="2" t="n"/>
       <c r="F59" s="2" t="n"/>
@@ -1467,16 +1467,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>-0.332</v>
+        <v>-0.236</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>-0.9975142857142864</v>
+        <v>-0.8584666666666673</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>-0.8690830397912592</v>
+        <v>-0.755844683626876</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>-0.1284312459230271</v>
+        <v>-0.1026219830397913</v>
       </c>
       <c r="E60" s="2" t="n"/>
       <c r="F60" s="2" t="n"/>
@@ -1484,16 +1484,16 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>-0.336</v>
+        <v>-0.24</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>-0.9962428571428579</v>
+        <v>-0.8699000000000006</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>-0.8738013046314419</v>
+        <v>-0.7605629484670586</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>-0.122441552511416</v>
+        <v>-0.1093370515329419</v>
       </c>
       <c r="E61" s="2" t="n"/>
       <c r="F61" s="2" t="n"/>
@@ -1501,16 +1501,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>-0.34</v>
+        <v>-0.244</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>-0.9947095238095245</v>
+        <v>-0.8810904761904769</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>-0.8785195694716246</v>
+        <v>-0.7652812133072413</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>-0.1161899543378999</v>
+        <v>-0.1158092628832356</v>
       </c>
       <c r="E62" s="2" t="n"/>
       <c r="F62" s="2" t="n"/>
@@ -1518,16 +1518,16 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>-0.344</v>
+        <v>-0.248</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>-0.9928142857142864</v>
+        <v>-0.8920190476190482</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>-0.8832378343118071</v>
+        <v>-0.7699994781474239</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>-0.1095764514024793</v>
+        <v>-0.1220195694716243</v>
       </c>
       <c r="E63" s="2" t="n"/>
       <c r="F63" s="2" t="n"/>
@@ -1535,16 +1535,16 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>-0.348</v>
+        <v>-0.252</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>-0.990676190476191</v>
+        <v>-0.9027523809523815</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>-0.8879560991519898</v>
+        <v>-0.7747177429876065</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>-0.1027200913242012</v>
+        <v>-0.128034637964775</v>
       </c>
       <c r="E64" s="2" t="n"/>
       <c r="F64" s="2" t="n"/>
@@ -1552,16 +1552,16 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>-0.352</v>
+        <v>-0.256</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>-0.9883714285714291</v>
+        <v>-0.9131190476190482</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>-0.8926743639921725</v>
+        <v>-0.7794360078277891</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>-0.09569706457925664</v>
+        <v>-0.1336830397912591</v>
       </c>
       <c r="E65" s="2" t="n"/>
       <c r="F65" s="2" t="n"/>
@@ -1569,16 +1569,16 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>-0.356</v>
+        <v>-0.26</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>-0.9860000000000007</v>
+        <v>-0.9230476190476197</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>-0.897392628832355</v>
+        <v>-0.7841542726679718</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>-0.08860737116764561</v>
+        <v>-0.1388933463796479</v>
       </c>
       <c r="E66" s="2" t="n"/>
       <c r="F66" s="2" t="n"/>
@@ -1586,16 +1586,16 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>-0.36</v>
+        <v>-0.264</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>-0.9836190476190483</v>
+        <v>-0.9325047619047626</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>-0.9021108936725377</v>
+        <v>-0.7888725375081544</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>-0.08150815394651056</v>
+        <v>-0.1436322243966082</v>
       </c>
       <c r="E67" s="2" t="n"/>
       <c r="F67" s="2" t="n"/>
@@ -1603,16 +1603,16 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>-0.364</v>
+        <v>-0.268</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>-0.9812619047619054</v>
+        <v>-0.9413238095238101</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>-0.9068291585127204</v>
+        <v>-0.7935908023483371</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>-0.07443274624918506</v>
+        <v>-0.147733007175473</v>
       </c>
       <c r="E68" s="2" t="n"/>
       <c r="F68" s="2" t="n"/>
@@ -1620,16 +1620,16 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>-0.368</v>
+        <v>-0.272</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>-0.9789666666666673</v>
+        <v>-0.9495428571428578</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>-0.9115474233529031</v>
+        <v>-0.7983090671885198</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>-0.06741924331376425</v>
+        <v>-0.151233789954338</v>
       </c>
       <c r="E69" s="2" t="n"/>
       <c r="F69" s="2" t="n"/>
@@ -1637,16 +1637,16 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>-0.372</v>
+        <v>-0.276</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>-0.9768523809523816</v>
+        <v>-0.9572380952380959</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>-0.9162656881930857</v>
+        <v>-0.8030273320287025</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>-0.06058669275929585</v>
+        <v>-0.1542107632093934</v>
       </c>
       <c r="E70" s="2" t="n"/>
       <c r="F70" s="2" t="n"/>
@@ -1654,16 +1654,16 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>-0.376</v>
+        <v>-0.28</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>-0.9749619047619054</v>
+        <v>-0.9643142857142865</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>-0.9209839530332684</v>
+        <v>-0.8077455968688851</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>-0.05397795172863695</v>
+        <v>-0.1565686888454013</v>
       </c>
       <c r="E71" s="2" t="n"/>
       <c r="F71" s="2" t="n"/>
@@ -1671,16 +1671,16 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>-0.38</v>
+        <v>-0.284</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>-0.9734000000000006</v>
+        <v>-0.9707476190476196</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>-0.9257022178734511</v>
+        <v>-0.8124638617090677</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>-0.04769778212654951</v>
+        <v>-0.1582837573385519</v>
       </c>
       <c r="E72" s="2" t="n"/>
       <c r="F72" s="2" t="n"/>
@@ -1688,16 +1688,16 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>-0.384</v>
+        <v>-0.288</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>-0.9721047619047625</v>
+        <v>-0.9765666666666675</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>-0.9304204827136338</v>
+        <v>-0.8171821265492504</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>-0.04168427919112871</v>
+        <v>-0.1593845401174171</v>
       </c>
       <c r="E73" s="2" t="n"/>
       <c r="F73" s="2" t="n"/>
@@ -1705,16 +1705,16 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>-0.388</v>
+        <v>-0.292</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>-0.9711190476190483</v>
+        <v>-0.9816238095238102</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>-0.9351387475538164</v>
+        <v>-0.8219003913894329</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>-0.0359803000652319</v>
+        <v>-0.1597234181343773</v>
       </c>
       <c r="E74" s="2" t="n"/>
       <c r="F74" s="2" t="n"/>
@@ -1722,16 +1722,16 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>-0.392</v>
+        <v>-0.296</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>-0.9704904761904769</v>
+        <v>-0.9860000000000008</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>-0.9398570123939991</v>
+        <v>-0.8266186562296156</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>-0.0306334637964778</v>
+        <v>-0.1593813437703852</v>
       </c>
       <c r="E75" s="2" t="n"/>
       <c r="F75" s="2" t="n"/>
@@ -1739,16 +1739,16 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>-0.396</v>
+        <v>-0.3</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>-0.9703285714285721</v>
+        <v>-0.9897190476190483</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>-0.9445752772341817</v>
+        <v>-0.8313369210697983</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>-0.02575329419439043</v>
+        <v>-0.15838212654925</v>
       </c>
       <c r="E76" s="2" t="n"/>
       <c r="F76" s="2" t="n"/>
@@ -1756,16 +1756,16 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>-0.4</v>
+        <v>-0.304</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>-0.9705666666666672</v>
+        <v>-0.9927666666666674</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>-0.9492935420743643</v>
+        <v>-0.836055185909981</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>-0.02127312459230291</v>
+        <v>-0.1567114807566864</v>
       </c>
       <c r="E77" s="2" t="n"/>
       <c r="F77" s="2" t="n"/>
@@ -1773,16 +1773,16 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>-0.404</v>
+        <v>-0.308</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>-0.9712952380952387</v>
+        <v>-0.9951761904761912</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>-0.954011806914547</v>
+        <v>-0.8407734507501636</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>-0.01728343118069164</v>
+        <v>-0.1544027397260276</v>
       </c>
       <c r="E78" s="2" t="n"/>
       <c r="F78" s="2" t="n"/>
@@ -1790,16 +1790,16 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>-0.408</v>
+        <v>-0.312</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>-0.9723619047619053</v>
+        <v>-0.9969666666666672</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>-0.9587300717547296</v>
+        <v>-0.8454917155903463</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>-0.01363183300717574</v>
+        <v>-0.1514749510763209</v>
       </c>
       <c r="E79" s="2" t="n"/>
       <c r="F79" s="2" t="n"/>
@@ -1807,16 +1807,16 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>-0.412</v>
+        <v>-0.316</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>-0.9738619047619053</v>
+        <v>-0.9981761904761911</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>-0.9634483365949122</v>
+        <v>-0.850209980430529</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>-0.01041356816699301</v>
+        <v>-0.1479662100456621</v>
       </c>
       <c r="E80" s="2" t="n"/>
       <c r="F80" s="2" t="n"/>
@@ -1824,16 +1824,16 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>-0.416</v>
+        <v>-0.32</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>-0.9757476190476198</v>
+        <v>-0.9987714285714293</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>-0.9681666014350949</v>
+        <v>-0.8549282452707117</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>-0.007581017612524832</v>
+        <v>-0.1438431833007177</v>
       </c>
       <c r="E81" s="2" t="n"/>
       <c r="F81" s="2" t="n"/>
@@ -1841,16 +1841,16 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>-0.42</v>
+        <v>-0.324</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>-0.978133333333334</v>
+        <v>-0.9988619047619055</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>-0.9728848662752776</v>
+        <v>-0.8596465101108943</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>-0.005248467058056372</v>
+        <v>-0.1392153946510112</v>
       </c>
       <c r="E82" s="2" t="n"/>
       <c r="F82" s="2" t="n"/>
@@ -1858,16 +1858,16 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>-0.424</v>
+        <v>-0.328</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>-0.981028571428572</v>
+        <v>-0.9983952380952388</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>-0.9776031311154603</v>
+        <v>-0.8643647749510769</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>-0.003425440313111761</v>
+        <v>-0.1340304631441619</v>
       </c>
       <c r="E83" s="2" t="n"/>
       <c r="F83" s="2" t="n"/>
@@ -1875,16 +1875,16 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>-0.428</v>
+        <v>-0.332</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>-0.9843476190476196</v>
+        <v>-0.9975142857142864</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>-0.9823213959556428</v>
+        <v>-0.8690830397912596</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>-0.002026223091976753</v>
+        <v>-0.1284312459230268</v>
       </c>
       <c r="E84" s="2" t="n"/>
       <c r="F84" s="2" t="n"/>
@@ -1892,16 +1892,16 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>-0.432</v>
+        <v>-0.336</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>-0.9880666666666672</v>
+        <v>-0.9962428571428579</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>-0.9870396607958255</v>
+        <v>-0.8738013046314421</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>-0.001027005870841702</v>
+        <v>-0.1224415525114158</v>
       </c>
       <c r="E85" s="2" t="n"/>
       <c r="F85" s="2" t="n"/>
@@ -1909,16 +1909,16 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>-0.436</v>
+        <v>-0.34</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>-0.9919904761904768</v>
+        <v>-0.9947095238095245</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>-0.9917579256360082</v>
+        <v>-0.8785195694716248</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>-0.0002325505544685802</v>
+        <v>-0.1161899543378997</v>
       </c>
       <c r="E86" s="2" t="n"/>
       <c r="F86" s="2" t="n"/>
@@ -1926,16 +1926,16 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>-0.44</v>
+        <v>-0.344</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>-0.9964761904761911</v>
+        <v>-0.9928142857142864</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>-0.9964761904761908</v>
+        <v>-0.8832378343118075</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>-2.220446049250313e-16</v>
+        <v>-0.109576451402479</v>
       </c>
       <c r="E87" s="2" t="n"/>
       <c r="F87" s="2" t="n"/>
@@ -1943,16 +1943,16 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>-0.444</v>
+        <v>-0.348</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>-1.00132380952381</v>
+        <v>-0.9906761904761912</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>-1.00132380952381</v>
+        <v>-0.8879560991519901</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>0</v>
+        <v>-0.102720091324201</v>
       </c>
       <c r="E88" s="2" t="n"/>
       <c r="F88" s="2" t="n"/>
@@ -1960,16 +1960,16 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>-0.448</v>
+        <v>-0.352</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>-1.006500000000001</v>
+        <v>-0.9883714285714291</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>-1.006500000000001</v>
+        <v>-0.8926743639921728</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>0</v>
+        <v>-0.09569706457925631</v>
       </c>
       <c r="E89" s="2" t="n"/>
       <c r="F89" s="2" t="n"/>
@@ -1977,16 +1977,16 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>-0.452</v>
+        <v>-0.356</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>-1.012142857142858</v>
+        <v>-0.9860000000000007</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>-1.012142857142858</v>
+        <v>-0.8973926288323555</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>0</v>
+        <v>-0.08860737116764517</v>
       </c>
       <c r="E90" s="2" t="n"/>
       <c r="F90" s="2" t="n"/>
@@ -1994,16 +1994,16 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>-0.456</v>
+        <v>-0.36</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>-1.018333333333334</v>
+        <v>-0.9836190476190483</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>-1.018333333333334</v>
+        <v>-0.9021108936725381</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>0</v>
+        <v>-0.08150815394651023</v>
       </c>
       <c r="E91" s="2" t="n"/>
       <c r="F91" s="2" t="n"/>
@@ -2011,16 +2011,16 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>-0.46</v>
+        <v>-0.364</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>-1.024761904761905</v>
+        <v>-0.9812619047619056</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>-1.024761904761905</v>
+        <v>-0.9068291585127207</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>0</v>
+        <v>-0.07443274624918483</v>
       </c>
       <c r="E92" s="2" t="n"/>
       <c r="F92" s="2" t="n"/>
@@ -2028,16 +2028,16 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>-0.464</v>
+        <v>-0.368</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>-1.031857142857143</v>
+        <v>-0.9789666666666673</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>-1.031857142857143</v>
+        <v>-0.9115474233529034</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>0</v>
+        <v>-0.06741924331376392</v>
       </c>
       <c r="E93" s="2" t="n"/>
       <c r="F93" s="2" t="n"/>
@@ -2045,16 +2045,16 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>-0.468</v>
+        <v>-0.372</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>-1.039285714285715</v>
+        <v>-0.9768523809523817</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>-1.039285714285715</v>
+        <v>-0.916265688193086</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>0</v>
+        <v>-0.06058669275929573</v>
       </c>
       <c r="E94" s="2" t="n"/>
       <c r="F94" s="2" t="n"/>
@@ -2062,16 +2062,16 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>-0.472</v>
+        <v>-0.376</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>-1.046857142857144</v>
+        <v>-0.9749619047619054</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>-1.046857142857144</v>
+        <v>-0.9209839530332686</v>
       </c>
       <c r="D95" s="2" t="n">
-        <v>0</v>
+        <v>-0.05397795172863673</v>
       </c>
       <c r="E95" s="2" t="n"/>
       <c r="F95" s="2" t="n"/>
@@ -2079,16 +2079,16 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>-0.476</v>
+        <v>-0.38</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>-1.054761904761906</v>
+        <v>-0.9734000000000007</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>-1.054761904761906</v>
+        <v>-0.9257022178734513</v>
       </c>
       <c r="D96" s="2" t="n">
-        <v>0</v>
+        <v>-0.0476977821265494</v>
       </c>
       <c r="E96" s="2" t="n"/>
       <c r="F96" s="2" t="n"/>
@@ -2096,16 +2096,16 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>-0.48</v>
+        <v>-0.384</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>-1.063333333333334</v>
+        <v>-0.9721047619047625</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>-1.063333333333334</v>
+        <v>-0.930420482713634</v>
       </c>
       <c r="D97" s="2" t="n">
-        <v>0</v>
+        <v>-0.04168427919112849</v>
       </c>
       <c r="E97" s="2" t="n"/>
       <c r="F97" s="2" t="n"/>
@@ -2113,16 +2113,16 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>-0.484</v>
+        <v>-0.388</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>-1.072190476190477</v>
+        <v>-0.9711190476190483</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>-1.072190476190477</v>
+        <v>-0.9351387475538167</v>
       </c>
       <c r="D98" s="2" t="n">
-        <v>0</v>
+        <v>-0.03598030006523167</v>
       </c>
       <c r="E98" s="2" t="n"/>
       <c r="F98" s="2" t="n"/>
@@ -2130,16 +2130,16 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>-0.488</v>
+        <v>-0.392</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>-1.081428571428572</v>
+        <v>-0.9704904761904769</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>-1.081428571428572</v>
+        <v>-0.9398570123939993</v>
       </c>
       <c r="D99" s="2" t="n">
-        <v>0</v>
+        <v>-0.03063346379647758</v>
       </c>
       <c r="E99" s="2" t="n"/>
       <c r="F99" s="2" t="n"/>
@@ -2147,16 +2147,16 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>-0.492</v>
+        <v>-0.396</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>-1.091142857142859</v>
+        <v>-0.9703285714285721</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>-1.091142857142859</v>
+        <v>-0.944575277234182</v>
       </c>
       <c r="D100" s="2" t="n">
-        <v>0</v>
+        <v>-0.0257532941943901</v>
       </c>
       <c r="E100" s="2" t="n"/>
       <c r="F100" s="2" t="n"/>
@@ -2164,16 +2164,16 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>-0.496</v>
+        <v>-0.4</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>-1.101285714285716</v>
+        <v>-0.9705666666666674</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>-1.101285714285716</v>
+        <v>-0.9492935420743647</v>
       </c>
       <c r="D101" s="2" t="n">
-        <v>0</v>
+        <v>-0.02127312459230268</v>
       </c>
       <c r="E101" s="2" t="n"/>
       <c r="F101" s="2" t="n"/>
@@ -2181,20 +2181,428 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>-0.5</v>
+        <v>-0.404</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>-1.111857142857144</v>
+        <v>-0.9712952380952388</v>
       </c>
       <c r="C102" s="2" t="n">
-        <v>-1.111857142857144</v>
+        <v>-0.9540118069145473</v>
       </c>
       <c r="D102" s="2" t="n">
-        <v>0</v>
+        <v>-0.01728343118069142</v>
       </c>
       <c r="E102" s="2" t="n"/>
       <c r="F102" s="2" t="n"/>
       <c r="G102" s="2" t="n"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>-0.408</v>
+      </c>
+      <c r="B103" s="2" t="n">
+        <v>-0.9723619047619053</v>
+      </c>
+      <c r="C103" s="2" t="n">
+        <v>-0.9587300717547298</v>
+      </c>
+      <c r="D103" s="2" t="n">
+        <v>-0.01363183300717552</v>
+      </c>
+      <c r="E103" s="2" t="n"/>
+      <c r="F103" s="2" t="n"/>
+      <c r="G103" s="2" t="n"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>-0.412</v>
+      </c>
+      <c r="B104" s="2" t="n">
+        <v>-0.9738619047619054</v>
+      </c>
+      <c r="C104" s="2" t="n">
+        <v>-0.9634483365949125</v>
+      </c>
+      <c r="D104" s="2" t="n">
+        <v>-0.0104135681669929</v>
+      </c>
+      <c r="E104" s="2" t="n"/>
+      <c r="F104" s="2" t="n"/>
+      <c r="G104" s="2" t="n"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>-0.416</v>
+      </c>
+      <c r="B105" s="2" t="n">
+        <v>-0.9757476190476196</v>
+      </c>
+      <c r="C105" s="2" t="n">
+        <v>-0.9681666014350951</v>
+      </c>
+      <c r="D105" s="2" t="n">
+        <v>-0.007581017612524499</v>
+      </c>
+      <c r="E105" s="2" t="n"/>
+      <c r="F105" s="2" t="n"/>
+      <c r="G105" s="2" t="n"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>-0.42</v>
+      </c>
+      <c r="B106" s="2" t="n">
+        <v>-0.978133333333334</v>
+      </c>
+      <c r="C106" s="2" t="n">
+        <v>-0.9728848662752778</v>
+      </c>
+      <c r="D106" s="2" t="n">
+        <v>-0.00524846705805615</v>
+      </c>
+      <c r="E106" s="2" t="n"/>
+      <c r="F106" s="2" t="n"/>
+      <c r="G106" s="2" t="n"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>-0.424</v>
+      </c>
+      <c r="B107" s="2" t="n">
+        <v>-0.981028571428572</v>
+      </c>
+      <c r="C107" s="2" t="n">
+        <v>-0.9776031311154605</v>
+      </c>
+      <c r="D107" s="2" t="n">
+        <v>-0.003425440313111539</v>
+      </c>
+      <c r="E107" s="2" t="n"/>
+      <c r="F107" s="2" t="n"/>
+      <c r="G107" s="2" t="n"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>-0.428</v>
+      </c>
+      <c r="B108" s="2" t="n">
+        <v>-0.9843476190476197</v>
+      </c>
+      <c r="C108" s="2" t="n">
+        <v>-0.9823213959556432</v>
+      </c>
+      <c r="D108" s="2" t="n">
+        <v>-0.002026223091976531</v>
+      </c>
+      <c r="E108" s="2" t="n"/>
+      <c r="F108" s="2" t="n"/>
+      <c r="G108" s="2" t="n"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>-0.432</v>
+      </c>
+      <c r="B109" s="2" t="n">
+        <v>-0.9880666666666672</v>
+      </c>
+      <c r="C109" s="2" t="n">
+        <v>-0.9870396607958257</v>
+      </c>
+      <c r="D109" s="2" t="n">
+        <v>-0.00102700587084148</v>
+      </c>
+      <c r="E109" s="2" t="n"/>
+      <c r="F109" s="2" t="n"/>
+      <c r="G109" s="2" t="n"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>-0.436</v>
+      </c>
+      <c r="B110" s="2" t="n">
+        <v>-0.9919904761904769</v>
+      </c>
+      <c r="C110" s="2" t="n">
+        <v>-0.9917579256360084</v>
+      </c>
+      <c r="D110" s="2" t="n">
+        <v>-0.0002325505544684692</v>
+      </c>
+      <c r="E110" s="2" t="n"/>
+      <c r="F110" s="2" t="n"/>
+      <c r="G110" s="2" t="n"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>-0.44</v>
+      </c>
+      <c r="B111" s="2" t="n">
+        <v>-0.9964761904761911</v>
+      </c>
+      <c r="C111" s="2" t="n">
+        <v>-0.9964761904761911</v>
+      </c>
+      <c r="D111" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E111" s="2" t="n"/>
+      <c r="F111" s="2" t="n"/>
+      <c r="G111" s="2" t="n"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>-0.444</v>
+      </c>
+      <c r="B112" s="2" t="n">
+        <v>-1.00132380952381</v>
+      </c>
+      <c r="C112" s="2" t="n">
+        <v>-1.00132380952381</v>
+      </c>
+      <c r="D112" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E112" s="2" t="n"/>
+      <c r="F112" s="2" t="n"/>
+      <c r="G112" s="2" t="n"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>-0.448</v>
+      </c>
+      <c r="B113" s="2" t="n">
+        <v>-1.006500000000001</v>
+      </c>
+      <c r="C113" s="2" t="n">
+        <v>-1.006500000000001</v>
+      </c>
+      <c r="D113" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E113" s="2" t="n"/>
+      <c r="F113" s="2" t="n"/>
+      <c r="G113" s="2" t="n"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>-0.452</v>
+      </c>
+      <c r="B114" s="2" t="n">
+        <v>-1.012142857142858</v>
+      </c>
+      <c r="C114" s="2" t="n">
+        <v>-1.012142857142858</v>
+      </c>
+      <c r="D114" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E114" s="2" t="n"/>
+      <c r="F114" s="2" t="n"/>
+      <c r="G114" s="2" t="n"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>-0.456</v>
+      </c>
+      <c r="B115" s="2" t="n">
+        <v>-1.018333333333334</v>
+      </c>
+      <c r="C115" s="2" t="n">
+        <v>-1.018333333333334</v>
+      </c>
+      <c r="D115" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E115" s="2" t="n"/>
+      <c r="F115" s="2" t="n"/>
+      <c r="G115" s="2" t="n"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>-0.46</v>
+      </c>
+      <c r="B116" s="2" t="n">
+        <v>-1.024761904761905</v>
+      </c>
+      <c r="C116" s="2" t="n">
+        <v>-1.024761904761905</v>
+      </c>
+      <c r="D116" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E116" s="2" t="n"/>
+      <c r="F116" s="2" t="n"/>
+      <c r="G116" s="2" t="n"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>-0.464</v>
+      </c>
+      <c r="B117" s="2" t="n">
+        <v>-1.031857142857143</v>
+      </c>
+      <c r="C117" s="2" t="n">
+        <v>-1.031857142857143</v>
+      </c>
+      <c r="D117" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E117" s="2" t="n"/>
+      <c r="F117" s="2" t="n"/>
+      <c r="G117" s="2" t="n"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>-0.468</v>
+      </c>
+      <c r="B118" s="2" t="n">
+        <v>-1.039285714285715</v>
+      </c>
+      <c r="C118" s="2" t="n">
+        <v>-1.039285714285715</v>
+      </c>
+      <c r="D118" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E118" s="2" t="n"/>
+      <c r="F118" s="2" t="n"/>
+      <c r="G118" s="2" t="n"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>-0.472</v>
+      </c>
+      <c r="B119" s="2" t="n">
+        <v>-1.046857142857144</v>
+      </c>
+      <c r="C119" s="2" t="n">
+        <v>-1.046857142857144</v>
+      </c>
+      <c r="D119" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E119" s="2" t="n"/>
+      <c r="F119" s="2" t="n"/>
+      <c r="G119" s="2" t="n"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>-0.476</v>
+      </c>
+      <c r="B120" s="2" t="n">
+        <v>-1.054761904761906</v>
+      </c>
+      <c r="C120" s="2" t="n">
+        <v>-1.054761904761906</v>
+      </c>
+      <c r="D120" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E120" s="2" t="n"/>
+      <c r="F120" s="2" t="n"/>
+      <c r="G120" s="2" t="n"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>-0.48</v>
+      </c>
+      <c r="B121" s="2" t="n">
+        <v>-1.063333333333334</v>
+      </c>
+      <c r="C121" s="2" t="n">
+        <v>-1.063333333333334</v>
+      </c>
+      <c r="D121" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E121" s="2" t="n"/>
+      <c r="F121" s="2" t="n"/>
+      <c r="G121" s="2" t="n"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>-0.484</v>
+      </c>
+      <c r="B122" s="2" t="n">
+        <v>-1.072190476190477</v>
+      </c>
+      <c r="C122" s="2" t="n">
+        <v>-1.072190476190477</v>
+      </c>
+      <c r="D122" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" s="2" t="n"/>
+      <c r="F122" s="2" t="n"/>
+      <c r="G122" s="2" t="n"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>-0.488</v>
+      </c>
+      <c r="B123" s="2" t="n">
+        <v>-1.081428571428572</v>
+      </c>
+      <c r="C123" s="2" t="n">
+        <v>-1.081428571428572</v>
+      </c>
+      <c r="D123" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" s="2" t="n"/>
+      <c r="F123" s="2" t="n"/>
+      <c r="G123" s="2" t="n"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>-0.492</v>
+      </c>
+      <c r="B124" s="2" t="n">
+        <v>-1.091142857142859</v>
+      </c>
+      <c r="C124" s="2" t="n">
+        <v>-1.091142857142859</v>
+      </c>
+      <c r="D124" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E124" s="2" t="n"/>
+      <c r="F124" s="2" t="n"/>
+      <c r="G124" s="2" t="n"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>-0.496</v>
+      </c>
+      <c r="B125" s="2" t="n">
+        <v>-1.101285714285716</v>
+      </c>
+      <c r="C125" s="2" t="n">
+        <v>-1.101285714285716</v>
+      </c>
+      <c r="D125" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E125" s="2" t="n"/>
+      <c r="F125" s="2" t="n"/>
+      <c r="G125" s="2" t="n"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="B126" s="2" t="n">
+        <v>-1.111857142857145</v>
+      </c>
+      <c r="C126" s="2" t="n">
+        <v>-1.111857142857145</v>
+      </c>
+      <c r="D126" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" s="2" t="n"/>
+      <c r="F126" s="2" t="n"/>
+      <c r="G126" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2236,7 +2644,7 @@
         <v>-0.292</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-0.1597234181343774</v>
+        <v>-0.1597234181343773</v>
       </c>
     </row>
   </sheetData>
